--- a/stage3-day2/Section4_CCN.xlsx
+++ b/stage3-day2/Section4_CCN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\rabbit\rabbit-report\stage3-day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03043524-B071-4FEA-A422-FC718D551FA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D83026-5ED2-4B56-9C8B-639167A2CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13710" yWindow="2145" windowWidth="19890" windowHeight="18945" xr2:uid="{4B919DB0-6813-49EF-A1D3-CE236171147F}"/>
+    <workbookView xWindow="17925" yWindow="2925" windowWidth="19890" windowHeight="16290" xr2:uid="{4B919DB0-6813-49EF-A1D3-CE236171147F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>入力値</t>
     <rPh sb="0" eb="3">
@@ -184,12 +184,26 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ストライド：１の場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ストライド：２の場合</t>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -221,8 +235,17 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -235,8 +258,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -385,13 +414,334 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,41 +766,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -473,9 +793,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -485,11 +802,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -986,8 +1414,8 @@
       <xdr:rowOff>223837</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="275396" cy="250453"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -1051,7 +1479,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="12" name="テキスト ボックス 11">
@@ -3679,6 +4107,614 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76352</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="64" name="図 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43383F97-3E52-4192-BC59-896302700ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="17687925"/>
+          <a:ext cx="1086002" cy="743054"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="矢印: 右 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E47148BE-854A-44D9-B29E-FA4381A75B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4781550" y="17868900"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>28777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E86D7C1-4E21-465D-9A0A-6BA8B0CA99EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1019175" y="17392650"/>
+          <a:ext cx="2152950" cy="1448002"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>161924</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="吹き出し: 角を丸めた四角形 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28C79371-5E29-4B04-AF7C-C9FDBA724BA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219199" y="19364325"/>
+          <a:ext cx="3933826" cy="1066800"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -31489"/>
+            <a:gd name="adj2" fmla="val -97260"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>上下左右に任意のピクセル数分広げます。</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>広げた場所には任意の値を設定する。（０を初期値としたり、近い場所の値とするなど）</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="矢印: 右 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7C4DB27-0E5F-4338-911B-D92B309FB17C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="22755225"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="矢印: 右 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2CE5B91-842A-42F3-9BB0-30275FE3716A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="22821900"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="吹き出し: 角を丸めた四角形 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D80362C-588C-4196-9A0A-CAEED50B62BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4733924" y="23507700"/>
+          <a:ext cx="3019426" cy="866775"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -24952"/>
+            <a:gd name="adj2" fmla="val -132081"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ストライド：１の場合は、計算するたびに、１ピクセル分移動する。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="矢印: 右 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D849EF13-3101-4097-BEC8-F9CB6451F03E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="22755225"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>113</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="83" name="矢印: 右 82">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F93035E-D3C0-4AD7-8ACE-6C0FEC5F766A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7572375" y="22821900"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4248,10 +5284,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1482BAE-87B8-4145-A1A0-BD1BFBFF9185}">
-  <dimension ref="A1:AI119"/>
+  <dimension ref="A1:AI135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA20" sqref="AA20"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -4295,44 +5331,44 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="10"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="24"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="10"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="12"/>
+      <c r="R2" s="23"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="14"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="13" t="s">
+      <c r="U2" s="28"/>
+      <c r="V2" s="29"/>
+      <c r="W2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="14"/>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="12" t="s">
+      <c r="X2" s="28"/>
+      <c r="Y2" s="29"/>
+      <c r="Z2" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="12"/>
+      <c r="AA2" s="23"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -4352,13 +5388,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="10"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
@@ -4390,7 +5426,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="30" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="1"/>
@@ -4429,7 +5465,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="19"/>
+      <c r="I5" s="31"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -4466,7 +5502,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="19"/>
+      <c r="I6" s="31"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -4505,7 +5541,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="19"/>
+      <c r="I7" s="31"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -4542,7 +5578,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="19"/>
+      <c r="I8" s="31"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -4579,7 +5615,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="17"/>
+      <c r="I9" s="32"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -4992,8 +6028,8 @@
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="23"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -5028,10 +6064,10 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="22"/>
+      <c r="I21" s="11"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="12"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
@@ -5065,12 +6101,12 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="24">
+      <c r="I22" s="11"/>
+      <c r="J22" s="14">
         <v>6</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="22"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="12"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -5105,8 +6141,8 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -5291,10 +6327,10 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="24">
+      <c r="J28" s="14">
         <v>6</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="14">
         <v>9</v>
       </c>
       <c r="L28" s="1"/>
@@ -5332,8 +6368,8 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -5519,10 +6555,10 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="24">
+      <c r="J34" s="14">
         <v>6</v>
       </c>
-      <c r="K34" s="24">
+      <c r="K34" s="14">
         <v>9</v>
       </c>
       <c r="L34" s="1"/>
@@ -5560,10 +6596,10 @@
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="24">
+      <c r="J35" s="14">
         <v>7</v>
       </c>
-      <c r="K35" s="24"/>
+      <c r="K35" s="14"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
       <c r="N35" s="1"/>
@@ -5749,10 +6785,10 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="24">
+      <c r="J40" s="14">
         <v>6</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="14">
         <v>9</v>
       </c>
       <c r="L40" s="1"/>
@@ -5790,10 +6826,10 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="24">
+      <c r="J41" s="14">
         <v>7</v>
       </c>
-      <c r="K41" s="24">
+      <c r="K41" s="14">
         <v>8</v>
       </c>
       <c r="L41" s="1"/>
@@ -6122,25 +7158,25 @@
     <row r="50" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="32"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="8" t="s">
+      <c r="I50" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
-      <c r="L50" s="9"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="12" t="s">
+      <c r="J50" s="22"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O50" s="12"/>
+      <c r="O50" s="23"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -6171,13 +7207,13 @@
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="8" t="s">
+      <c r="I51" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
-      <c r="L51" s="9"/>
-      <c r="M51" s="10"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="24"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -6246,7 +7282,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="27" t="s">
+      <c r="H53" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I53" s="2"/>
@@ -6254,11 +7290,11 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
       <c r="M53" s="2"/>
-      <c r="N53" s="24">
+      <c r="N53" s="14">
         <v>141</v>
       </c>
-      <c r="O53" s="24"/>
-      <c r="P53" s="30"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="19"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
@@ -6287,15 +7323,15 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="31"/>
+      <c r="H54" s="26"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
       <c r="L54" s="2"/>
       <c r="M54" s="2"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="30"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="19"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
@@ -6324,7 +7360,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
-      <c r="H55" s="20"/>
+      <c r="H55" s="10"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
@@ -6361,7 +7397,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
-      <c r="H56" s="20"/>
+      <c r="H56" s="10"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
@@ -6393,14 +7429,14 @@
     <row r="57" spans="1:35" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
-      <c r="H57" s="20"/>
+      <c r="H57" s="10"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
@@ -6437,7 +7473,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
-      <c r="H58" s="18"/>
+      <c r="H58" s="9"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
@@ -6546,34 +7582,34 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="8" t="s">
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I61" s="9"/>
-      <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
-      <c r="L61" s="10"/>
+      <c r="I61" s="22"/>
+      <c r="J61" s="22"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="24"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="12" t="s">
+      <c r="N61" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="O61" s="12"/>
-      <c r="P61" s="13" t="s">
+      <c r="O61" s="23"/>
+      <c r="P61" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Q61" s="14"/>
-      <c r="R61" s="15"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="29"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="12" t="s">
+      <c r="T61" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="U61" s="12"/>
+      <c r="U61" s="23"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
@@ -6597,13 +7633,13 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="8" t="s">
+      <c r="H62" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="9"/>
-      <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
-      <c r="L62" s="10"/>
+      <c r="I62" s="22"/>
+      <c r="J62" s="22"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="24"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -6685,7 +7721,7 @@
       <c r="O64" s="3">
         <v>190</v>
       </c>
-      <c r="P64" s="27" t="s">
+      <c r="P64" s="25" t="s">
         <v>16</v>
       </c>
       <c r="Q64" s="3">
@@ -6724,7 +7760,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="27" t="s">
+      <c r="H65" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
@@ -6738,7 +7774,7 @@
       <c r="O65" s="3">
         <v>137</v>
       </c>
-      <c r="P65" s="31"/>
+      <c r="P65" s="26"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -6768,12 +7804,12 @@
     <row r="66" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
-      <c r="C66" s="29"/>
-      <c r="D66" s="29"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="31"/>
+      <c r="H66" s="26"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -7114,10 +8150,18 @@
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
+      <c r="P75" s="3">
+        <v>49</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>113</v>
+      </c>
+      <c r="R75" s="3">
+        <v>148</v>
+      </c>
+      <c r="S75" s="3">
+        <v>99</v>
+      </c>
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
       <c r="V75" s="2"/>
@@ -7145,16 +8189,26 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="J76" s="25" t="s">
+        <v>1</v>
+      </c>
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2"/>
+      <c r="P76" s="3">
+        <v>89</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>141</v>
+      </c>
+      <c r="R76" s="3">
+        <v>190</v>
+      </c>
+      <c r="S76" s="3">
+        <v>119</v>
+      </c>
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
       <c r="V76" s="2"/>
@@ -7182,16 +8236,24 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
+      <c r="J77" s="26"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-      <c r="R77" s="2"/>
-      <c r="S77" s="2"/>
+      <c r="P77" s="3">
+        <v>51</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>111</v>
+      </c>
+      <c r="R77" s="3">
+        <v>137</v>
+      </c>
+      <c r="S77" s="3">
+        <v>111</v>
+      </c>
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
       <c r="V77" s="2"/>
@@ -7225,10 +8287,18 @@
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-      <c r="R78" s="2"/>
-      <c r="S78" s="2"/>
+      <c r="P78" s="3">
+        <v>44</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>55</v>
+      </c>
+      <c r="R78" s="3">
+        <v>111</v>
+      </c>
+      <c r="S78" s="3">
+        <v>99</v>
+      </c>
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
       <c r="V78" s="2"/>
@@ -7657,19 +8727,21 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2"/>
-      <c r="H90" s="2"/>
-      <c r="I90" s="2"/>
-      <c r="J90" s="2"/>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="2"/>
-      <c r="O90" s="2"/>
-      <c r="P90" s="2"/>
+      <c r="D90" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="53"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -7694,19 +8766,19 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="2"/>
-      <c r="H91" s="2"/>
-      <c r="I91" s="2"/>
-      <c r="J91" s="2"/>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
+      <c r="D91" s="54"/>
+      <c r="E91" s="55"/>
+      <c r="F91" s="55"/>
+      <c r="G91" s="55"/>
+      <c r="H91" s="55"/>
+      <c r="I91" s="55"/>
+      <c r="J91" s="55"/>
+      <c r="K91" s="55"/>
+      <c r="L91" s="55"/>
+      <c r="M91" s="55"/>
+      <c r="N91" s="55"/>
+      <c r="O91" s="55"/>
+      <c r="P91" s="56"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -7727,35 +8799,35 @@
       <c r="AH91" s="2"/>
       <c r="AI91" s="2"/>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2"/>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2"/>
-      <c r="K92" s="2"/>
+      <c r="D92" s="6"/>
+      <c r="E92" s="6"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="6"/>
+      <c r="I92" s="6"/>
+      <c r="J92" s="6"/>
+      <c r="K92" s="6"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
-      <c r="N92" s="2"/>
-      <c r="O92" s="2"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2"/>
-      <c r="R92" s="2"/>
-      <c r="S92" s="2"/>
-      <c r="T92" s="2"/>
-      <c r="U92" s="2"/>
+      <c r="N92" s="6"/>
+      <c r="O92" s="6"/>
+      <c r="P92" s="6"/>
+      <c r="Q92" s="6"/>
+      <c r="R92" s="6"/>
+      <c r="S92" s="6"/>
+      <c r="T92" s="6"/>
+      <c r="U92" s="6"/>
       <c r="V92" s="2"/>
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
-      <c r="Y92" s="2"/>
-      <c r="Z92" s="2"/>
-      <c r="AA92" s="2"/>
-      <c r="AB92" s="2"/>
+      <c r="Y92" s="6"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
       <c r="AE92" s="2"/>
@@ -7764,38 +8836,86 @@
       <c r="AH92" s="2"/>
       <c r="AI92" s="2"/>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-      <c r="E93" s="2"/>
-      <c r="F93" s="2"/>
-      <c r="G93" s="2"/>
-      <c r="H93" s="2"/>
-      <c r="I93" s="2"/>
-      <c r="J93" s="2"/>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="2"/>
-      <c r="O93" s="2"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2"/>
-      <c r="R93" s="2"/>
-      <c r="S93" s="2"/>
-      <c r="T93" s="2"/>
-      <c r="U93" s="2"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="40">
+        <v>3</v>
+      </c>
+      <c r="E93" s="41">
+        <v>4</v>
+      </c>
+      <c r="F93" s="42">
+        <v>4</v>
+      </c>
+      <c r="G93" s="39">
+        <v>2</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3</v>
+      </c>
+      <c r="I93" s="3">
+        <v>4</v>
+      </c>
+      <c r="J93" s="3">
+        <v>4</v>
+      </c>
+      <c r="K93" s="3">
+        <v>2</v>
+      </c>
+      <c r="L93" s="5"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="35">
+        <v>3</v>
+      </c>
+      <c r="O93" s="40">
+        <v>4</v>
+      </c>
+      <c r="P93" s="41">
+        <v>4</v>
+      </c>
+      <c r="Q93" s="42">
+        <v>2</v>
+      </c>
+      <c r="R93" s="39">
+        <v>3</v>
+      </c>
+      <c r="S93" s="3">
+        <v>4</v>
+      </c>
+      <c r="T93" s="3">
+        <v>4</v>
+      </c>
+      <c r="U93" s="3">
+        <v>2</v>
+      </c>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="2"/>
-      <c r="Y93" s="2"/>
-      <c r="Z93" s="2"/>
-      <c r="AA93" s="2"/>
-      <c r="AB93" s="2"/>
-      <c r="AC93" s="2"/>
-      <c r="AD93" s="2"/>
-      <c r="AE93" s="2"/>
+      <c r="X93" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y93" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z93" s="40">
+        <v>4</v>
+      </c>
+      <c r="AA93" s="41">
+        <v>2</v>
+      </c>
+      <c r="AB93" s="48">
+        <v>3</v>
+      </c>
+      <c r="AC93" s="39">
+        <v>4</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>2</v>
+      </c>
       <c r="AF93" s="2"/>
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
@@ -7804,109 +8924,253 @@
     <row r="94" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-      <c r="D94" s="2"/>
-      <c r="E94" s="2"/>
-      <c r="F94" s="2"/>
-      <c r="G94" s="2"/>
-      <c r="H94" s="2"/>
-      <c r="I94" s="2"/>
-      <c r="J94" s="2"/>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="2"/>
-      <c r="O94" s="2"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2"/>
-      <c r="R94" s="2"/>
-      <c r="S94" s="2"/>
-      <c r="T94" s="2"/>
-      <c r="U94" s="2"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="43">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>8</v>
+      </c>
+      <c r="F94" s="44">
+        <v>9</v>
+      </c>
+      <c r="G94" s="39">
+        <v>2</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>8</v>
+      </c>
+      <c r="J94" s="3">
+        <v>9</v>
+      </c>
+      <c r="K94" s="3">
+        <v>2</v>
+      </c>
+      <c r="L94" s="5"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="35">
+        <v>0</v>
+      </c>
+      <c r="O94" s="43">
+        <v>8</v>
+      </c>
+      <c r="P94" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q94" s="44">
+        <v>2</v>
+      </c>
+      <c r="R94" s="39">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>8</v>
+      </c>
+      <c r="T94" s="3">
+        <v>9</v>
+      </c>
+      <c r="U94" s="3">
+        <v>2</v>
+      </c>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="2"/>
-      <c r="Y94" s="2"/>
-      <c r="Z94" s="2"/>
-      <c r="AA94" s="2"/>
-      <c r="AB94" s="2"/>
-      <c r="AC94" s="2"/>
-      <c r="AD94" s="2"/>
-      <c r="AE94" s="2"/>
+      <c r="X94" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="35">
+        <v>8</v>
+      </c>
+      <c r="Z94" s="43">
+        <v>9</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB94" s="49">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="39">
+        <v>8</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE94" s="3">
+        <v>2</v>
+      </c>
       <c r="AF94" s="2"/>
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
       <c r="AI94" s="2"/>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-      <c r="D95" s="2"/>
-      <c r="E95" s="2"/>
-      <c r="F95" s="2"/>
-      <c r="G95" s="2"/>
-      <c r="H95" s="2"/>
-      <c r="I95" s="2"/>
-      <c r="J95" s="2"/>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="2"/>
-      <c r="O95" s="2"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2"/>
-      <c r="R95" s="2"/>
-      <c r="S95" s="2"/>
-      <c r="T95" s="2"/>
-      <c r="U95" s="2"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="45">
+        <v>0</v>
+      </c>
+      <c r="E95" s="46">
+        <v>4</v>
+      </c>
+      <c r="F95" s="47">
+        <v>3</v>
+      </c>
+      <c r="G95" s="39">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <v>0</v>
+      </c>
+      <c r="I95" s="3">
+        <v>4</v>
+      </c>
+      <c r="J95" s="3">
+        <v>3</v>
+      </c>
+      <c r="K95" s="3">
+        <v>1</v>
+      </c>
+      <c r="L95" s="5"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="35">
+        <v>0</v>
+      </c>
+      <c r="O95" s="45">
+        <v>4</v>
+      </c>
+      <c r="P95" s="46">
+        <v>3</v>
+      </c>
+      <c r="Q95" s="47">
+        <v>1</v>
+      </c>
+      <c r="R95" s="39">
+        <v>0</v>
+      </c>
+      <c r="S95" s="3">
+        <v>4</v>
+      </c>
+      <c r="T95" s="3">
+        <v>3</v>
+      </c>
+      <c r="U95" s="3">
+        <v>1</v>
+      </c>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="2"/>
-      <c r="Y95" s="2"/>
-      <c r="Z95" s="2"/>
-      <c r="AA95" s="2"/>
-      <c r="AB95" s="2"/>
-      <c r="AC95" s="2"/>
-      <c r="AD95" s="2"/>
-      <c r="AE95" s="2"/>
+      <c r="X95" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y95" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z95" s="45">
+        <v>3</v>
+      </c>
+      <c r="AA95" s="46">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="50">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="39">
+        <v>4</v>
+      </c>
+      <c r="AD95" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE95" s="3">
+        <v>1</v>
+      </c>
       <c r="AF95" s="2"/>
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
       <c r="AI95" s="2"/>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-      <c r="E96" s="2"/>
-      <c r="F96" s="2"/>
-      <c r="G96" s="2"/>
-      <c r="H96" s="2"/>
-      <c r="I96" s="2"/>
-      <c r="J96" s="2"/>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="2"/>
-      <c r="O96" s="2"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2"/>
-      <c r="R96" s="2"/>
-      <c r="S96" s="2"/>
-      <c r="T96" s="2"/>
-      <c r="U96" s="2"/>
+      <c r="D96" s="33">
+        <v>3</v>
+      </c>
+      <c r="E96" s="33">
+        <v>3</v>
+      </c>
+      <c r="F96" s="33">
+        <v>5</v>
+      </c>
+      <c r="G96" s="3">
+        <v>7</v>
+      </c>
+      <c r="H96" s="3">
+        <v>3</v>
+      </c>
+      <c r="I96" s="3">
+        <v>3</v>
+      </c>
+      <c r="J96" s="3">
+        <v>5</v>
+      </c>
+      <c r="K96" s="3">
+        <v>7</v>
+      </c>
+      <c r="L96" s="5"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="3">
+        <v>3</v>
+      </c>
+      <c r="O96" s="33">
+        <v>3</v>
+      </c>
+      <c r="P96" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q96" s="33">
+        <v>7</v>
+      </c>
+      <c r="R96" s="3">
+        <v>3</v>
+      </c>
+      <c r="S96" s="3">
+        <v>3</v>
+      </c>
+      <c r="T96" s="3">
+        <v>5</v>
+      </c>
+      <c r="U96" s="3">
+        <v>7</v>
+      </c>
       <c r="V96" s="2"/>
       <c r="W96" s="2"/>
-      <c r="X96" s="2"/>
-      <c r="Y96" s="2"/>
-      <c r="Z96" s="2"/>
-      <c r="AA96" s="2"/>
-      <c r="AB96" s="2"/>
-      <c r="AC96" s="2"/>
-      <c r="AD96" s="2"/>
-      <c r="AE96" s="2"/>
+      <c r="X96" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y96" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z96" s="33">
+        <v>5</v>
+      </c>
+      <c r="AA96" s="33">
+        <v>7</v>
+      </c>
+      <c r="AB96" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>7</v>
+      </c>
       <c r="AF96" s="2"/>
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
@@ -7916,34 +9180,82 @@
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="2"/>
-      <c r="E97" s="2"/>
-      <c r="F97" s="2"/>
-      <c r="G97" s="2"/>
-      <c r="H97" s="2"/>
-      <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="2"/>
-      <c r="O97" s="2"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2"/>
-      <c r="R97" s="2"/>
-      <c r="S97" s="2"/>
-      <c r="T97" s="2"/>
-      <c r="U97" s="2"/>
+      <c r="D97" s="3">
+        <v>3</v>
+      </c>
+      <c r="E97" s="3">
+        <v>4</v>
+      </c>
+      <c r="F97" s="3">
+        <v>4</v>
+      </c>
+      <c r="G97" s="3">
+        <v>2</v>
+      </c>
+      <c r="H97" s="3">
+        <v>3</v>
+      </c>
+      <c r="I97" s="3">
+        <v>4</v>
+      </c>
+      <c r="J97" s="3">
+        <v>4</v>
+      </c>
+      <c r="K97" s="3">
+        <v>2</v>
+      </c>
+      <c r="L97" s="5"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="3">
+        <v>3</v>
+      </c>
+      <c r="O97" s="3">
+        <v>4</v>
+      </c>
+      <c r="P97" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>2</v>
+      </c>
+      <c r="R97" s="3">
+        <v>3</v>
+      </c>
+      <c r="S97" s="3">
+        <v>4</v>
+      </c>
+      <c r="T97" s="3">
+        <v>4</v>
+      </c>
+      <c r="U97" s="3">
+        <v>2</v>
+      </c>
       <c r="V97" s="2"/>
       <c r="W97" s="2"/>
-      <c r="X97" s="2"/>
-      <c r="Y97" s="2"/>
-      <c r="Z97" s="2"/>
-      <c r="AA97" s="2"/>
-      <c r="AB97" s="2"/>
-      <c r="AC97" s="2"/>
-      <c r="AD97" s="2"/>
-      <c r="AE97" s="2"/>
+      <c r="X97" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z97" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB97" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>2</v>
+      </c>
       <c r="AF97" s="2"/>
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
@@ -7953,34 +9265,82 @@
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2"/>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2"/>
-      <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="2"/>
-      <c r="O98" s="2"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2"/>
-      <c r="R98" s="2"/>
-      <c r="S98" s="2"/>
-      <c r="T98" s="2"/>
-      <c r="U98" s="2"/>
+      <c r="D98" s="3">
+        <v>0</v>
+      </c>
+      <c r="E98" s="3">
+        <v>8</v>
+      </c>
+      <c r="F98" s="3">
+        <v>9</v>
+      </c>
+      <c r="G98" s="3">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3">
+        <v>0</v>
+      </c>
+      <c r="I98" s="3">
+        <v>8</v>
+      </c>
+      <c r="J98" s="3">
+        <v>9</v>
+      </c>
+      <c r="K98" s="3">
+        <v>2</v>
+      </c>
+      <c r="L98" s="5"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>8</v>
+      </c>
+      <c r="P98" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>2</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>8</v>
+      </c>
+      <c r="T98" s="3">
+        <v>9</v>
+      </c>
+      <c r="U98" s="3">
+        <v>2</v>
+      </c>
       <c r="V98" s="2"/>
       <c r="W98" s="2"/>
-      <c r="X98" s="2"/>
-      <c r="Y98" s="2"/>
-      <c r="Z98" s="2"/>
-      <c r="AA98" s="2"/>
-      <c r="AB98" s="2"/>
-      <c r="AC98" s="2"/>
-      <c r="AD98" s="2"/>
-      <c r="AE98" s="2"/>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z98" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>2</v>
+      </c>
       <c r="AF98" s="2"/>
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
@@ -7990,34 +9350,82 @@
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
+      <c r="D99" s="3">
+        <v>0</v>
+      </c>
+      <c r="E99" s="3">
+        <v>4</v>
+      </c>
+      <c r="F99" s="3">
+        <v>3</v>
+      </c>
+      <c r="G99" s="3">
+        <v>1</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+      <c r="I99" s="3">
+        <v>4</v>
+      </c>
+      <c r="J99" s="3">
+        <v>3</v>
+      </c>
+      <c r="K99" s="3">
+        <v>1</v>
+      </c>
+      <c r="L99" s="5"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>4</v>
+      </c>
+      <c r="P99" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>1</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>4</v>
+      </c>
+      <c r="T99" s="3">
+        <v>3</v>
+      </c>
+      <c r="U99" s="3">
+        <v>1</v>
+      </c>
       <c r="V99" s="2"/>
       <c r="W99" s="2"/>
-      <c r="X99" s="2"/>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z99" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>1</v>
+      </c>
       <c r="AF99" s="2"/>
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
@@ -8027,34 +9435,82 @@
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
+      <c r="D100" s="3">
+        <v>3</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3</v>
+      </c>
+      <c r="F100" s="3">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3">
+        <v>7</v>
+      </c>
+      <c r="H100" s="3">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>7</v>
+      </c>
+      <c r="L100" s="5"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="3">
+        <v>3</v>
+      </c>
+      <c r="O100" s="3">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>7</v>
+      </c>
+      <c r="R100" s="3">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3">
+        <v>5</v>
+      </c>
+      <c r="U100" s="3">
+        <v>7</v>
+      </c>
       <c r="V100" s="2"/>
       <c r="W100" s="2"/>
-      <c r="X100" s="2"/>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="2"/>
+      <c r="X100" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB100" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD100" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>7</v>
+      </c>
       <c r="AF100" s="2"/>
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
@@ -8064,14 +9520,14 @@
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2"/>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2"/>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
-      <c r="K101" s="2"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="7"/>
+      <c r="I101" s="7"/>
+      <c r="J101" s="7"/>
+      <c r="K101" s="7"/>
       <c r="L101" s="2"/>
       <c r="M101" s="2"/>
       <c r="N101" s="2"/>
@@ -8323,19 +9779,21 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
-      <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
-      <c r="N108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
+      <c r="D108" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="52"/>
+      <c r="P108" s="53"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
@@ -8360,19 +9818,19 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-      <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
-      <c r="G109" s="2"/>
-      <c r="H109" s="2"/>
-      <c r="I109" s="2"/>
-      <c r="J109" s="2"/>
-      <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
-      <c r="N109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="2"/>
+      <c r="D109" s="54"/>
+      <c r="E109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="55"/>
+      <c r="H109" s="55"/>
+      <c r="I109" s="55"/>
+      <c r="J109" s="55"/>
+      <c r="K109" s="55"/>
+      <c r="L109" s="55"/>
+      <c r="M109" s="55"/>
+      <c r="N109" s="55"/>
+      <c r="O109" s="55"/>
+      <c r="P109" s="56"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
@@ -8393,75 +9851,123 @@
       <c r="AH109" s="2"/>
       <c r="AI109" s="2"/>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-      <c r="E110" s="2"/>
-      <c r="F110" s="2"/>
-      <c r="G110" s="2"/>
-      <c r="H110" s="2"/>
-      <c r="I110" s="2"/>
-      <c r="J110" s="2"/>
-      <c r="K110" s="2"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="6"/>
+      <c r="F110" s="6"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="6"/>
+      <c r="I110" s="6"/>
+      <c r="J110" s="6"/>
+      <c r="K110" s="6"/>
       <c r="L110" s="2"/>
       <c r="M110" s="2"/>
-      <c r="N110" s="2"/>
-      <c r="O110" s="2"/>
-      <c r="P110" s="2"/>
-      <c r="Q110" s="2"/>
-      <c r="R110" s="2"/>
-      <c r="S110" s="2"/>
-      <c r="T110" s="2"/>
-      <c r="U110" s="2"/>
+      <c r="N110" s="6"/>
+      <c r="O110" s="6"/>
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6"/>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
       <c r="V110" s="2"/>
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
-      <c r="Y110" s="2"/>
-      <c r="Z110" s="2"/>
-      <c r="AA110" s="2"/>
-      <c r="AB110" s="2"/>
-      <c r="AC110" s="2"/>
-      <c r="AD110" s="2"/>
+      <c r="Y110" s="6"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
+      <c r="AD110" s="6"/>
       <c r="AE110" s="2"/>
       <c r="AF110" s="2"/>
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
       <c r="AI110" s="2"/>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-      <c r="E111" s="2"/>
-      <c r="F111" s="2"/>
-      <c r="G111" s="2"/>
-      <c r="H111" s="2"/>
-      <c r="I111" s="2"/>
-      <c r="J111" s="2"/>
-      <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" s="2"/>
-      <c r="P111" s="2"/>
-      <c r="Q111" s="2"/>
-      <c r="R111" s="2"/>
-      <c r="S111" s="2"/>
-      <c r="T111" s="2"/>
-      <c r="U111" s="2"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="40">
+        <v>3</v>
+      </c>
+      <c r="E111" s="41">
+        <v>4</v>
+      </c>
+      <c r="F111" s="42">
+        <v>4</v>
+      </c>
+      <c r="G111" s="39">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3">
+        <v>3</v>
+      </c>
+      <c r="I111" s="3">
+        <v>4</v>
+      </c>
+      <c r="J111" s="3">
+        <v>4</v>
+      </c>
+      <c r="K111" s="3">
+        <v>2</v>
+      </c>
+      <c r="L111" s="5"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="35">
+        <v>3</v>
+      </c>
+      <c r="O111" s="35">
+        <v>4</v>
+      </c>
+      <c r="P111" s="40">
+        <v>4</v>
+      </c>
+      <c r="Q111" s="41">
+        <v>2</v>
+      </c>
+      <c r="R111" s="48">
+        <v>3</v>
+      </c>
+      <c r="S111" s="39">
+        <v>4</v>
+      </c>
+      <c r="T111" s="3">
+        <v>4</v>
+      </c>
+      <c r="U111" s="3">
+        <v>2</v>
+      </c>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
-      <c r="X111" s="2"/>
-      <c r="Y111" s="2"/>
-      <c r="Z111" s="2"/>
-      <c r="AA111" s="2"/>
-      <c r="AB111" s="2"/>
-      <c r="AC111" s="2"/>
-      <c r="AD111" s="2"/>
-      <c r="AE111" s="2"/>
+      <c r="X111" s="35">
+        <v>3</v>
+      </c>
+      <c r="Y111" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z111" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA111" s="35">
+        <v>2</v>
+      </c>
+      <c r="AB111" s="40">
+        <v>3</v>
+      </c>
+      <c r="AC111" s="57">
+        <v>4</v>
+      </c>
+      <c r="AD111" s="42">
+        <v>4</v>
+      </c>
+      <c r="AE111" s="39">
+        <v>2</v>
+      </c>
       <c r="AF111" s="2"/>
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
@@ -8470,109 +9976,253 @@
     <row r="112" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2"/>
-      <c r="F112" s="2"/>
-      <c r="G112" s="2"/>
-      <c r="H112" s="2"/>
-      <c r="I112" s="2"/>
-      <c r="J112" s="2"/>
-      <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" s="2"/>
-      <c r="P112" s="2"/>
-      <c r="Q112" s="2"/>
-      <c r="R112" s="2"/>
-      <c r="S112" s="2"/>
-      <c r="T112" s="2"/>
-      <c r="U112" s="2"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="43">
+        <v>0</v>
+      </c>
+      <c r="E112" s="3">
+        <v>8</v>
+      </c>
+      <c r="F112" s="44">
+        <v>9</v>
+      </c>
+      <c r="G112" s="39">
+        <v>2</v>
+      </c>
+      <c r="H112" s="3">
+        <v>0</v>
+      </c>
+      <c r="I112" s="3">
+        <v>8</v>
+      </c>
+      <c r="J112" s="3">
+        <v>9</v>
+      </c>
+      <c r="K112" s="3">
+        <v>2</v>
+      </c>
+      <c r="L112" s="5"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="35">
+        <v>0</v>
+      </c>
+      <c r="O112" s="35">
+        <v>8</v>
+      </c>
+      <c r="P112" s="43">
+        <v>9</v>
+      </c>
+      <c r="Q112" s="3">
+        <v>2</v>
+      </c>
+      <c r="R112" s="49">
+        <v>0</v>
+      </c>
+      <c r="S112" s="39">
+        <v>8</v>
+      </c>
+      <c r="T112" s="3">
+        <v>9</v>
+      </c>
+      <c r="U112" s="3">
+        <v>2</v>
+      </c>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
-      <c r="X112" s="2"/>
-      <c r="Y112" s="2"/>
-      <c r="Z112" s="2"/>
-      <c r="AA112" s="2"/>
-      <c r="AB112" s="2"/>
-      <c r="AC112" s="2"/>
-      <c r="AD112" s="2"/>
-      <c r="AE112" s="2"/>
+      <c r="X112" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y112" s="35">
+        <v>8</v>
+      </c>
+      <c r="Z112" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA112" s="35">
+        <v>2</v>
+      </c>
+      <c r="AB112" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC112" s="39">
+        <v>8</v>
+      </c>
+      <c r="AD112" s="44">
+        <v>9</v>
+      </c>
+      <c r="AE112" s="39">
+        <v>2</v>
+      </c>
       <c r="AF112" s="2"/>
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
       <c r="AI112" s="2"/>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2"/>
-      <c r="F113" s="2"/>
-      <c r="G113" s="2"/>
-      <c r="H113" s="2"/>
-      <c r="I113" s="2"/>
-      <c r="J113" s="2"/>
-      <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" s="2"/>
-      <c r="P113" s="2"/>
-      <c r="Q113" s="2"/>
-      <c r="R113" s="2"/>
-      <c r="S113" s="2"/>
-      <c r="T113" s="2"/>
-      <c r="U113" s="2"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="45">
+        <v>0</v>
+      </c>
+      <c r="E113" s="46">
+        <v>4</v>
+      </c>
+      <c r="F113" s="47">
+        <v>3</v>
+      </c>
+      <c r="G113" s="39">
+        <v>1</v>
+      </c>
+      <c r="H113" s="3">
+        <v>0</v>
+      </c>
+      <c r="I113" s="3">
+        <v>4</v>
+      </c>
+      <c r="J113" s="3">
+        <v>3</v>
+      </c>
+      <c r="K113" s="3">
+        <v>1</v>
+      </c>
+      <c r="L113" s="5"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="35">
+        <v>0</v>
+      </c>
+      <c r="O113" s="35">
+        <v>4</v>
+      </c>
+      <c r="P113" s="45">
+        <v>3</v>
+      </c>
+      <c r="Q113" s="46">
+        <v>1</v>
+      </c>
+      <c r="R113" s="50">
+        <v>0</v>
+      </c>
+      <c r="S113" s="39">
+        <v>4</v>
+      </c>
+      <c r="T113" s="3">
+        <v>3</v>
+      </c>
+      <c r="U113" s="3">
+        <v>1</v>
+      </c>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
-      <c r="X113" s="2"/>
-      <c r="Y113" s="2"/>
-      <c r="Z113" s="2"/>
-      <c r="AA113" s="2"/>
-      <c r="AB113" s="2"/>
-      <c r="AC113" s="2"/>
-      <c r="AD113" s="2"/>
-      <c r="AE113" s="2"/>
+      <c r="X113" s="35">
+        <v>0</v>
+      </c>
+      <c r="Y113" s="35">
+        <v>4</v>
+      </c>
+      <c r="Z113" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA113" s="35">
+        <v>1</v>
+      </c>
+      <c r="AB113" s="45">
+        <v>0</v>
+      </c>
+      <c r="AC113" s="58">
+        <v>4</v>
+      </c>
+      <c r="AD113" s="47">
+        <v>3</v>
+      </c>
+      <c r="AE113" s="39">
+        <v>1</v>
+      </c>
       <c r="AF113" s="2"/>
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
       <c r="AI113" s="2"/>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="2"/>
-      <c r="H114" s="2"/>
-      <c r="I114" s="2"/>
-      <c r="J114" s="2"/>
-      <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" s="2"/>
-      <c r="P114" s="2"/>
-      <c r="Q114" s="2"/>
-      <c r="R114" s="2"/>
-      <c r="S114" s="2"/>
-      <c r="T114" s="2"/>
-      <c r="U114" s="2"/>
+      <c r="D114" s="33">
+        <v>3</v>
+      </c>
+      <c r="E114" s="33">
+        <v>3</v>
+      </c>
+      <c r="F114" s="33">
+        <v>5</v>
+      </c>
+      <c r="G114" s="3">
+        <v>7</v>
+      </c>
+      <c r="H114" s="3">
+        <v>3</v>
+      </c>
+      <c r="I114" s="3">
+        <v>3</v>
+      </c>
+      <c r="J114" s="3">
+        <v>5</v>
+      </c>
+      <c r="K114" s="3">
+        <v>7</v>
+      </c>
+      <c r="L114" s="5"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="3">
+        <v>3</v>
+      </c>
+      <c r="O114" s="33">
+        <v>3</v>
+      </c>
+      <c r="P114" s="33">
+        <v>5</v>
+      </c>
+      <c r="Q114" s="33">
+        <v>7</v>
+      </c>
+      <c r="R114" s="33">
+        <v>3</v>
+      </c>
+      <c r="S114" s="3">
+        <v>3</v>
+      </c>
+      <c r="T114" s="3">
+        <v>5</v>
+      </c>
+      <c r="U114" s="3">
+        <v>7</v>
+      </c>
       <c r="V114" s="2"/>
       <c r="W114" s="2"/>
-      <c r="X114" s="2"/>
-      <c r="Y114" s="2"/>
-      <c r="Z114" s="2"/>
-      <c r="AA114" s="2"/>
-      <c r="AB114" s="2"/>
-      <c r="AC114" s="2"/>
-      <c r="AD114" s="2"/>
-      <c r="AE114" s="2"/>
+      <c r="X114" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y114" s="33">
+        <v>3</v>
+      </c>
+      <c r="Z114" s="33">
+        <v>5</v>
+      </c>
+      <c r="AA114" s="33">
+        <v>7</v>
+      </c>
+      <c r="AB114" s="33">
+        <v>3</v>
+      </c>
+      <c r="AC114" s="33">
+        <v>3</v>
+      </c>
+      <c r="AD114" s="33">
+        <v>5</v>
+      </c>
+      <c r="AE114" s="3">
+        <v>7</v>
+      </c>
       <c r="AF114" s="2"/>
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
@@ -8582,34 +10232,82 @@
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
-      <c r="F115" s="2"/>
-      <c r="G115" s="2"/>
-      <c r="H115" s="2"/>
-      <c r="I115" s="2"/>
-      <c r="J115" s="2"/>
-      <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" s="2"/>
-      <c r="P115" s="2"/>
-      <c r="Q115" s="2"/>
-      <c r="R115" s="2"/>
-      <c r="S115" s="2"/>
-      <c r="T115" s="2"/>
-      <c r="U115" s="2"/>
+      <c r="D115" s="3">
+        <v>3</v>
+      </c>
+      <c r="E115" s="3">
+        <v>4</v>
+      </c>
+      <c r="F115" s="3">
+        <v>4</v>
+      </c>
+      <c r="G115" s="3">
+        <v>2</v>
+      </c>
+      <c r="H115" s="3">
+        <v>3</v>
+      </c>
+      <c r="I115" s="3">
+        <v>4</v>
+      </c>
+      <c r="J115" s="3">
+        <v>4</v>
+      </c>
+      <c r="K115" s="3">
+        <v>2</v>
+      </c>
+      <c r="L115" s="5"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="3">
+        <v>3</v>
+      </c>
+      <c r="O115" s="3">
+        <v>4</v>
+      </c>
+      <c r="P115" s="3">
+        <v>4</v>
+      </c>
+      <c r="Q115" s="3">
+        <v>2</v>
+      </c>
+      <c r="R115" s="3">
+        <v>3</v>
+      </c>
+      <c r="S115" s="3">
+        <v>4</v>
+      </c>
+      <c r="T115" s="3">
+        <v>4</v>
+      </c>
+      <c r="U115" s="3">
+        <v>2</v>
+      </c>
       <c r="V115" s="2"/>
       <c r="W115" s="2"/>
-      <c r="X115" s="2"/>
-      <c r="Y115" s="2"/>
-      <c r="Z115" s="2"/>
-      <c r="AA115" s="2"/>
-      <c r="AB115" s="2"/>
-      <c r="AC115" s="2"/>
-      <c r="AD115" s="2"/>
-      <c r="AE115" s="2"/>
+      <c r="X115" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y115" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z115" s="3">
+        <v>4</v>
+      </c>
+      <c r="AA115" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB115" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC115" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD115" s="3">
+        <v>4</v>
+      </c>
+      <c r="AE115" s="3">
+        <v>2</v>
+      </c>
       <c r="AF115" s="2"/>
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
@@ -8619,34 +10317,82 @@
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-      <c r="E116" s="2"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
-      <c r="H116" s="2"/>
-      <c r="I116" s="2"/>
-      <c r="J116" s="2"/>
-      <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" s="2"/>
-      <c r="P116" s="2"/>
-      <c r="Q116" s="2"/>
-      <c r="R116" s="2"/>
-      <c r="S116" s="2"/>
-      <c r="T116" s="2"/>
-      <c r="U116" s="2"/>
+      <c r="D116" s="3">
+        <v>0</v>
+      </c>
+      <c r="E116" s="3">
+        <v>8</v>
+      </c>
+      <c r="F116" s="3">
+        <v>9</v>
+      </c>
+      <c r="G116" s="3">
+        <v>2</v>
+      </c>
+      <c r="H116" s="3">
+        <v>0</v>
+      </c>
+      <c r="I116" s="3">
+        <v>8</v>
+      </c>
+      <c r="J116" s="3">
+        <v>9</v>
+      </c>
+      <c r="K116" s="3">
+        <v>2</v>
+      </c>
+      <c r="L116" s="5"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="3">
+        <v>0</v>
+      </c>
+      <c r="O116" s="3">
+        <v>8</v>
+      </c>
+      <c r="P116" s="3">
+        <v>9</v>
+      </c>
+      <c r="Q116" s="3">
+        <v>2</v>
+      </c>
+      <c r="R116" s="3">
+        <v>0</v>
+      </c>
+      <c r="S116" s="3">
+        <v>8</v>
+      </c>
+      <c r="T116" s="3">
+        <v>9</v>
+      </c>
+      <c r="U116" s="3">
+        <v>2</v>
+      </c>
       <c r="V116" s="2"/>
       <c r="W116" s="2"/>
-      <c r="X116" s="2"/>
-      <c r="Y116" s="2"/>
-      <c r="Z116" s="2"/>
-      <c r="AA116" s="2"/>
-      <c r="AB116" s="2"/>
-      <c r="AC116" s="2"/>
-      <c r="AD116" s="2"/>
-      <c r="AE116" s="2"/>
+      <c r="X116" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y116" s="3">
+        <v>8</v>
+      </c>
+      <c r="Z116" s="3">
+        <v>9</v>
+      </c>
+      <c r="AA116" s="3">
+        <v>2</v>
+      </c>
+      <c r="AB116" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC116" s="3">
+        <v>8</v>
+      </c>
+      <c r="AD116" s="3">
+        <v>9</v>
+      </c>
+      <c r="AE116" s="3">
+        <v>2</v>
+      </c>
       <c r="AF116" s="2"/>
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
@@ -8656,34 +10402,82 @@
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
-      <c r="D117" s="2"/>
-      <c r="E117" s="2"/>
-      <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
-      <c r="H117" s="2"/>
-      <c r="I117" s="2"/>
-      <c r="J117" s="2"/>
-      <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" s="2"/>
-      <c r="P117" s="2"/>
-      <c r="Q117" s="2"/>
-      <c r="R117" s="2"/>
-      <c r="S117" s="2"/>
-      <c r="T117" s="2"/>
-      <c r="U117" s="2"/>
+      <c r="D117" s="3">
+        <v>0</v>
+      </c>
+      <c r="E117" s="3">
+        <v>4</v>
+      </c>
+      <c r="F117" s="3">
+        <v>3</v>
+      </c>
+      <c r="G117" s="3">
+        <v>1</v>
+      </c>
+      <c r="H117" s="3">
+        <v>0</v>
+      </c>
+      <c r="I117" s="3">
+        <v>4</v>
+      </c>
+      <c r="J117" s="3">
+        <v>3</v>
+      </c>
+      <c r="K117" s="3">
+        <v>1</v>
+      </c>
+      <c r="L117" s="5"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="3">
+        <v>0</v>
+      </c>
+      <c r="O117" s="3">
+        <v>4</v>
+      </c>
+      <c r="P117" s="3">
+        <v>3</v>
+      </c>
+      <c r="Q117" s="3">
+        <v>1</v>
+      </c>
+      <c r="R117" s="3">
+        <v>0</v>
+      </c>
+      <c r="S117" s="3">
+        <v>4</v>
+      </c>
+      <c r="T117" s="3">
+        <v>3</v>
+      </c>
+      <c r="U117" s="3">
+        <v>1</v>
+      </c>
       <c r="V117" s="2"/>
       <c r="W117" s="2"/>
-      <c r="X117" s="2"/>
-      <c r="Y117" s="2"/>
-      <c r="Z117" s="2"/>
-      <c r="AA117" s="2"/>
-      <c r="AB117" s="2"/>
-      <c r="AC117" s="2"/>
-      <c r="AD117" s="2"/>
-      <c r="AE117" s="2"/>
+      <c r="X117" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y117" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z117" s="3">
+        <v>3</v>
+      </c>
+      <c r="AA117" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB117" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC117" s="3">
+        <v>4</v>
+      </c>
+      <c r="AD117" s="3">
+        <v>3</v>
+      </c>
+      <c r="AE117" s="3">
+        <v>1</v>
+      </c>
       <c r="AF117" s="2"/>
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
@@ -8693,34 +10487,82 @@
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
-      <c r="D118" s="2"/>
-      <c r="E118" s="2"/>
-      <c r="F118" s="2"/>
-      <c r="G118" s="2"/>
-      <c r="H118" s="2"/>
-      <c r="I118" s="2"/>
-      <c r="J118" s="2"/>
-      <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" s="2"/>
-      <c r="P118" s="2"/>
-      <c r="Q118" s="2"/>
-      <c r="R118" s="2"/>
-      <c r="S118" s="2"/>
-      <c r="T118" s="2"/>
-      <c r="U118" s="2"/>
+      <c r="D118" s="3">
+        <v>3</v>
+      </c>
+      <c r="E118" s="3">
+        <v>3</v>
+      </c>
+      <c r="F118" s="3">
+        <v>5</v>
+      </c>
+      <c r="G118" s="3">
+        <v>7</v>
+      </c>
+      <c r="H118" s="3">
+        <v>3</v>
+      </c>
+      <c r="I118" s="3">
+        <v>3</v>
+      </c>
+      <c r="J118" s="3">
+        <v>5</v>
+      </c>
+      <c r="K118" s="3">
+        <v>7</v>
+      </c>
+      <c r="L118" s="5"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="3">
+        <v>3</v>
+      </c>
+      <c r="O118" s="3">
+        <v>3</v>
+      </c>
+      <c r="P118" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q118" s="3">
+        <v>7</v>
+      </c>
+      <c r="R118" s="3">
+        <v>3</v>
+      </c>
+      <c r="S118" s="3">
+        <v>3</v>
+      </c>
+      <c r="T118" s="3">
+        <v>5</v>
+      </c>
+      <c r="U118" s="3">
+        <v>7</v>
+      </c>
       <c r="V118" s="2"/>
       <c r="W118" s="2"/>
-      <c r="X118" s="2"/>
-      <c r="Y118" s="2"/>
-      <c r="Z118" s="2"/>
-      <c r="AA118" s="2"/>
-      <c r="AB118" s="2"/>
-      <c r="AC118" s="2"/>
-      <c r="AD118" s="2"/>
-      <c r="AE118" s="2"/>
+      <c r="X118" s="3">
+        <v>3</v>
+      </c>
+      <c r="Y118" s="3">
+        <v>3</v>
+      </c>
+      <c r="Z118" s="3">
+        <v>5</v>
+      </c>
+      <c r="AA118" s="3">
+        <v>7</v>
+      </c>
+      <c r="AB118" s="3">
+        <v>3</v>
+      </c>
+      <c r="AC118" s="3">
+        <v>3</v>
+      </c>
+      <c r="AD118" s="3">
+        <v>5</v>
+      </c>
+      <c r="AE118" s="3">
+        <v>7</v>
+      </c>
       <c r="AF118" s="2"/>
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
@@ -8730,14 +10572,14 @@
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
-      <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
-      <c r="F119" s="2"/>
-      <c r="G119" s="2"/>
-      <c r="H119" s="2"/>
-      <c r="I119" s="2"/>
-      <c r="J119" s="2"/>
-      <c r="K119" s="2"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="7"/>
+      <c r="I119" s="7"/>
+      <c r="J119" s="7"/>
+      <c r="K119" s="7"/>
       <c r="L119" s="2"/>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -8763,29 +10605,624 @@
       <c r="AH119" s="2"/>
       <c r="AI119" s="2"/>
     </row>
+    <row r="120" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A120" s="2"/>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" s="2"/>
+      <c r="P120" s="2"/>
+      <c r="Q120" s="2"/>
+      <c r="R120" s="2"/>
+      <c r="S120" s="2"/>
+      <c r="T120" s="2"/>
+      <c r="U120" s="2"/>
+      <c r="V120" s="2"/>
+      <c r="W120" s="2"/>
+      <c r="X120" s="2"/>
+      <c r="Y120" s="2"/>
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+      <c r="AC120" s="2"/>
+      <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
+      <c r="AF120" s="2"/>
+      <c r="AG120" s="2"/>
+      <c r="AH120" s="2"/>
+      <c r="AI120" s="2"/>
+    </row>
+    <row r="121" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A121" s="2"/>
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+      <c r="D121" s="2"/>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" s="2"/>
+      <c r="P121" s="2"/>
+      <c r="Q121" s="2"/>
+      <c r="R121" s="2"/>
+      <c r="S121" s="2"/>
+      <c r="T121" s="2"/>
+      <c r="U121" s="2"/>
+      <c r="V121" s="2"/>
+      <c r="W121" s="2"/>
+      <c r="X121" s="2"/>
+      <c r="Y121" s="2"/>
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+      <c r="AC121" s="2"/>
+      <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
+      <c r="AF121" s="2"/>
+      <c r="AG121" s="2"/>
+      <c r="AH121" s="2"/>
+      <c r="AI121" s="2"/>
+    </row>
+    <row r="122" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A122" s="2"/>
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+      <c r="D122" s="2"/>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2"/>
+      <c r="N122" s="2"/>
+      <c r="O122" s="2"/>
+      <c r="P122" s="2"/>
+      <c r="Q122" s="2"/>
+      <c r="R122" s="2"/>
+      <c r="S122" s="2"/>
+      <c r="T122" s="2"/>
+      <c r="U122" s="2"/>
+      <c r="V122" s="2"/>
+      <c r="W122" s="2"/>
+      <c r="X122" s="2"/>
+      <c r="Y122" s="2"/>
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+      <c r="AC122" s="2"/>
+      <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
+      <c r="AF122" s="2"/>
+      <c r="AG122" s="2"/>
+      <c r="AH122" s="2"/>
+      <c r="AI122" s="2"/>
+    </row>
+    <row r="123" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A123" s="2"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="2"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2"/>
+      <c r="V123" s="2"/>
+      <c r="W123" s="2"/>
+      <c r="X123" s="2"/>
+      <c r="Y123" s="2"/>
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+      <c r="AC123" s="2"/>
+      <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
+      <c r="AF123" s="2"/>
+      <c r="AG123" s="2"/>
+      <c r="AH123" s="2"/>
+      <c r="AI123" s="2"/>
+    </row>
+    <row r="124" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+      <c r="H124" s="2"/>
+      <c r="I124" s="2"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="2"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+      <c r="R124" s="2"/>
+      <c r="S124" s="2"/>
+      <c r="T124" s="2"/>
+      <c r="U124" s="2"/>
+      <c r="V124" s="2"/>
+      <c r="W124" s="2"/>
+      <c r="X124" s="2"/>
+      <c r="Y124" s="2"/>
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+      <c r="AC124" s="2"/>
+      <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
+      <c r="AF124" s="2"/>
+      <c r="AG124" s="2"/>
+      <c r="AH124" s="2"/>
+      <c r="AI124" s="2"/>
+    </row>
+    <row r="125" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A125" s="2"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="2"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2"/>
+      <c r="V125" s="2"/>
+      <c r="W125" s="2"/>
+      <c r="X125" s="2"/>
+      <c r="Y125" s="2"/>
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+      <c r="AC125" s="2"/>
+      <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
+      <c r="AF125" s="2"/>
+      <c r="AG125" s="2"/>
+      <c r="AH125" s="2"/>
+      <c r="AI125" s="2"/>
+    </row>
+    <row r="126" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A126" s="2"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+      <c r="R126" s="2"/>
+      <c r="S126" s="2"/>
+      <c r="T126" s="2"/>
+      <c r="U126" s="2"/>
+      <c r="V126" s="2"/>
+      <c r="W126" s="2"/>
+      <c r="X126" s="2"/>
+      <c r="Y126" s="2"/>
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+      <c r="AC126" s="2"/>
+      <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
+      <c r="AF126" s="2"/>
+      <c r="AG126" s="2"/>
+      <c r="AH126" s="2"/>
+      <c r="AI126" s="2"/>
+    </row>
+    <row r="127" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A127" s="2"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+      <c r="R127" s="2"/>
+      <c r="S127" s="2"/>
+      <c r="T127" s="2"/>
+      <c r="U127" s="2"/>
+      <c r="V127" s="2"/>
+      <c r="W127" s="2"/>
+      <c r="X127" s="2"/>
+      <c r="Y127" s="2"/>
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+      <c r="AC127" s="2"/>
+      <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
+      <c r="AF127" s="2"/>
+      <c r="AG127" s="2"/>
+      <c r="AH127" s="2"/>
+      <c r="AI127" s="2"/>
+    </row>
+    <row r="128" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A128" s="2"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+      <c r="R128" s="2"/>
+      <c r="S128" s="2"/>
+      <c r="T128" s="2"/>
+      <c r="U128" s="2"/>
+      <c r="V128" s="2"/>
+      <c r="W128" s="2"/>
+      <c r="X128" s="2"/>
+      <c r="Y128" s="2"/>
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+      <c r="AC128" s="2"/>
+      <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
+      <c r="AF128" s="2"/>
+      <c r="AG128" s="2"/>
+      <c r="AH128" s="2"/>
+      <c r="AI128" s="2"/>
+    </row>
+    <row r="129" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A129" s="2"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2"/>
+      <c r="V129" s="2"/>
+      <c r="W129" s="2"/>
+      <c r="X129" s="2"/>
+      <c r="Y129" s="2"/>
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+      <c r="AC129" s="2"/>
+      <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
+      <c r="AF129" s="2"/>
+      <c r="AG129" s="2"/>
+      <c r="AH129" s="2"/>
+      <c r="AI129" s="2"/>
+    </row>
+    <row r="130" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A130" s="2"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
+      <c r="U130" s="2"/>
+      <c r="V130" s="2"/>
+      <c r="W130" s="2"/>
+      <c r="X130" s="2"/>
+      <c r="Y130" s="2"/>
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+      <c r="AC130" s="2"/>
+      <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
+      <c r="AF130" s="2"/>
+      <c r="AG130" s="2"/>
+      <c r="AH130" s="2"/>
+      <c r="AI130" s="2"/>
+    </row>
+    <row r="131" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A131" s="2"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+      <c r="R131" s="2"/>
+      <c r="S131" s="2"/>
+      <c r="T131" s="2"/>
+      <c r="U131" s="2"/>
+      <c r="V131" s="2"/>
+      <c r="W131" s="2"/>
+      <c r="X131" s="2"/>
+      <c r="Y131" s="2"/>
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+      <c r="AC131" s="2"/>
+      <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
+      <c r="AF131" s="2"/>
+      <c r="AG131" s="2"/>
+      <c r="AH131" s="2"/>
+      <c r="AI131" s="2"/>
+    </row>
+    <row r="132" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A132" s="2"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
+      <c r="R132" s="2"/>
+      <c r="S132" s="2"/>
+      <c r="T132" s="2"/>
+      <c r="U132" s="2"/>
+      <c r="V132" s="2"/>
+      <c r="W132" s="2"/>
+      <c r="X132" s="2"/>
+      <c r="Y132" s="2"/>
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+      <c r="AC132" s="2"/>
+      <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
+      <c r="AF132" s="2"/>
+      <c r="AG132" s="2"/>
+      <c r="AH132" s="2"/>
+      <c r="AI132" s="2"/>
+    </row>
+    <row r="133" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A133" s="2"/>
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+      <c r="D133" s="2"/>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" s="2"/>
+      <c r="P133" s="2"/>
+      <c r="Q133" s="2"/>
+      <c r="R133" s="2"/>
+      <c r="S133" s="2"/>
+      <c r="T133" s="2"/>
+      <c r="U133" s="2"/>
+      <c r="V133" s="2"/>
+      <c r="W133" s="2"/>
+      <c r="X133" s="2"/>
+      <c r="Y133" s="2"/>
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="2"/>
+      <c r="AC133" s="2"/>
+      <c r="AD133" s="2"/>
+      <c r="AE133" s="2"/>
+      <c r="AF133" s="2"/>
+      <c r="AG133" s="2"/>
+      <c r="AH133" s="2"/>
+      <c r="AI133" s="2"/>
+    </row>
+    <row r="134" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A134" s="2"/>
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+      <c r="D134" s="2"/>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2"/>
+      <c r="K134" s="2"/>
+      <c r="L134" s="2"/>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" s="2"/>
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2"/>
+      <c r="V134" s="2"/>
+      <c r="W134" s="2"/>
+      <c r="X134" s="2"/>
+      <c r="Y134" s="2"/>
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+      <c r="AC134" s="2"/>
+      <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
+      <c r="AF134" s="2"/>
+      <c r="AG134" s="2"/>
+      <c r="AH134" s="2"/>
+      <c r="AI134" s="2"/>
+    </row>
+    <row r="135" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A135" s="2"/>
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+      <c r="D135" s="2"/>
+      <c r="E135" s="2"/>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="2"/>
+      <c r="L135" s="2"/>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" s="2"/>
+      <c r="P135" s="2"/>
+      <c r="Q135" s="2"/>
+      <c r="R135" s="2"/>
+      <c r="S135" s="2"/>
+      <c r="T135" s="2"/>
+      <c r="U135" s="2"/>
+      <c r="V135" s="2"/>
+      <c r="W135" s="2"/>
+      <c r="X135" s="2"/>
+      <c r="Y135" s="2"/>
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+      <c r="AC135" s="2"/>
+      <c r="AD135" s="2"/>
+      <c r="AE135" s="2"/>
+      <c r="AF135" s="2"/>
+      <c r="AG135" s="2"/>
+      <c r="AH135" s="2"/>
+      <c r="AI135" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="C50:E50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="I50:M50"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:L61"/>
+  <mergeCells count="24">
+    <mergeCell ref="D108:P109"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="J2:N2"/>
+    <mergeCell ref="J3:N3"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="D90:P91"/>
+    <mergeCell ref="I4:I9"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="T2:V2"/>
     <mergeCell ref="H62:L62"/>
     <mergeCell ref="P64:P65"/>
     <mergeCell ref="P61:R61"/>
     <mergeCell ref="T61:U61"/>
     <mergeCell ref="H65:H66"/>
     <mergeCell ref="N61:O61"/>
-    <mergeCell ref="I4:I9"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="C50:E50"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:L61"/>
     <mergeCell ref="H53:H54"/>
     <mergeCell ref="I51:M51"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="J2:N2"/>
-    <mergeCell ref="J3:N3"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8796,10 +11233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8414EEE-B2C8-4F9C-A07F-4C1355627F16}">
-  <dimension ref="A1:AG38"/>
+  <dimension ref="A1:AG97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41:F44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10110,8 +12547,8 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
       <c r="D34" s="5"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -10145,8 +12582,8 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="5"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -10283,9 +12720,2107 @@
       <c r="AF38" s="2"/>
       <c r="AG38" s="2"/>
     </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A40" s="4"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A41" s="4"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="33">
+        <v>3</v>
+      </c>
+      <c r="D41" s="33">
+        <v>4</v>
+      </c>
+      <c r="E41" s="33">
+        <v>4</v>
+      </c>
+      <c r="F41" s="34">
+        <v>2</v>
+      </c>
+      <c r="G41" s="38"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A42" s="4"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="3">
+        <v>0</v>
+      </c>
+      <c r="D42" s="3">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
+        <v>9</v>
+      </c>
+      <c r="F42" s="35">
+        <v>2</v>
+      </c>
+      <c r="G42" s="38"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A43" s="4"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="3">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>4</v>
+      </c>
+      <c r="E43" s="3">
+        <v>3</v>
+      </c>
+      <c r="F43" s="35">
+        <v>1</v>
+      </c>
+      <c r="G43" s="38"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A44" s="4"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="36">
+        <v>3</v>
+      </c>
+      <c r="D44" s="36">
+        <v>3</v>
+      </c>
+      <c r="E44" s="36">
+        <v>5</v>
+      </c>
+      <c r="F44" s="37">
+        <v>7</v>
+      </c>
+      <c r="G44" s="38"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A45" s="4"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A46" s="2"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2"/>
+      <c r="V62" s="2"/>
+      <c r="W62" s="2"/>
+      <c r="X62" s="2"/>
+      <c r="Y62" s="2"/>
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+      <c r="AC62" s="2"/>
+      <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
+      <c r="AF62" s="2"/>
+      <c r="AG62" s="2"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2"/>
+      <c r="V63" s="2"/>
+      <c r="W63" s="2"/>
+      <c r="X63" s="2"/>
+      <c r="Y63" s="2"/>
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+      <c r="AC63" s="2"/>
+      <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
+      <c r="AF63" s="2"/>
+      <c r="AG63" s="2"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" s="2"/>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2"/>
+      <c r="V64" s="2"/>
+      <c r="W64" s="2"/>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+      <c r="AC64" s="2"/>
+      <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
+      <c r="AF64" s="2"/>
+      <c r="AG64" s="2"/>
+    </row>
+    <row r="65" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+      <c r="N65" s="2"/>
+      <c r="O65" s="2"/>
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2"/>
+      <c r="V65" s="2"/>
+      <c r="W65" s="2"/>
+      <c r="X65" s="2"/>
+      <c r="Y65" s="2"/>
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+      <c r="AC65" s="2"/>
+      <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
+      <c r="AF65" s="2"/>
+      <c r="AG65" s="2"/>
+    </row>
+    <row r="66" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+      <c r="N66" s="2"/>
+      <c r="O66" s="2"/>
+      <c r="P66" s="2"/>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2"/>
+      <c r="S66" s="2"/>
+      <c r="T66" s="2"/>
+      <c r="U66" s="2"/>
+      <c r="V66" s="2"/>
+      <c r="W66" s="2"/>
+      <c r="X66" s="2"/>
+      <c r="Y66" s="2"/>
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+      <c r="AC66" s="2"/>
+      <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
+      <c r="AF66" s="2"/>
+      <c r="AG66" s="2"/>
+    </row>
+    <row r="67" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+      <c r="S67" s="2"/>
+      <c r="T67" s="2"/>
+      <c r="U67" s="2"/>
+      <c r="V67" s="2"/>
+      <c r="W67" s="2"/>
+      <c r="X67" s="2"/>
+      <c r="Y67" s="2"/>
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+      <c r="AC67" s="2"/>
+      <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
+      <c r="AF67" s="2"/>
+      <c r="AG67" s="2"/>
+    </row>
+    <row r="68" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+      <c r="R68" s="2"/>
+      <c r="S68" s="2"/>
+      <c r="T68" s="2"/>
+      <c r="U68" s="2"/>
+      <c r="V68" s="2"/>
+      <c r="W68" s="2"/>
+      <c r="X68" s="2"/>
+      <c r="Y68" s="2"/>
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+      <c r="AC68" s="2"/>
+      <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
+      <c r="AF68" s="2"/>
+      <c r="AG68" s="2"/>
+    </row>
+    <row r="69" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
+      <c r="R69" s="2"/>
+      <c r="S69" s="2"/>
+      <c r="T69" s="2"/>
+      <c r="U69" s="2"/>
+      <c r="V69" s="2"/>
+      <c r="W69" s="2"/>
+      <c r="X69" s="2"/>
+      <c r="Y69" s="2"/>
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+      <c r="AC69" s="2"/>
+      <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
+      <c r="AF69" s="2"/>
+      <c r="AG69" s="2"/>
+    </row>
+    <row r="70" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
+      <c r="R70" s="2"/>
+      <c r="S70" s="2"/>
+      <c r="T70" s="2"/>
+      <c r="U70" s="2"/>
+      <c r="V70" s="2"/>
+      <c r="W70" s="2"/>
+      <c r="X70" s="2"/>
+      <c r="Y70" s="2"/>
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+      <c r="AC70" s="2"/>
+      <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
+      <c r="AF70" s="2"/>
+      <c r="AG70" s="2"/>
+    </row>
+    <row r="71" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2"/>
+      <c r="V71" s="2"/>
+      <c r="W71" s="2"/>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+      <c r="AC71" s="2"/>
+      <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
+      <c r="AF71" s="2"/>
+      <c r="AG71" s="2"/>
+    </row>
+    <row r="72" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
+      <c r="R72" s="2"/>
+      <c r="S72" s="2"/>
+      <c r="T72" s="2"/>
+      <c r="U72" s="2"/>
+      <c r="V72" s="2"/>
+      <c r="W72" s="2"/>
+      <c r="X72" s="2"/>
+      <c r="Y72" s="2"/>
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+      <c r="AC72" s="2"/>
+      <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
+      <c r="AF72" s="2"/>
+      <c r="AG72" s="2"/>
+    </row>
+    <row r="73" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2"/>
+      <c r="V73" s="2"/>
+      <c r="W73" s="2"/>
+      <c r="X73" s="2"/>
+      <c r="Y73" s="2"/>
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+      <c r="AC73" s="2"/>
+      <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
+      <c r="AF73" s="2"/>
+      <c r="AG73" s="2"/>
+    </row>
+    <row r="74" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+      <c r="R74" s="2"/>
+      <c r="S74" s="2"/>
+      <c r="T74" s="2"/>
+      <c r="U74" s="2"/>
+      <c r="V74" s="2"/>
+      <c r="W74" s="2"/>
+      <c r="X74" s="2"/>
+      <c r="Y74" s="2"/>
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+      <c r="AC74" s="2"/>
+      <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
+      <c r="AF74" s="2"/>
+      <c r="AG74" s="2"/>
+    </row>
+    <row r="75" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2"/>
+      <c r="V75" s="2"/>
+      <c r="W75" s="2"/>
+      <c r="X75" s="2"/>
+      <c r="Y75" s="2"/>
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+      <c r="AC75" s="2"/>
+      <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
+      <c r="AF75" s="2"/>
+      <c r="AG75" s="2"/>
+    </row>
+    <row r="76" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+      <c r="R76" s="2"/>
+      <c r="S76" s="2"/>
+      <c r="T76" s="2"/>
+      <c r="U76" s="2"/>
+      <c r="V76" s="2"/>
+      <c r="W76" s="2"/>
+      <c r="X76" s="2"/>
+      <c r="Y76" s="2"/>
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+      <c r="AC76" s="2"/>
+      <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
+      <c r="AF76" s="2"/>
+      <c r="AG76" s="2"/>
+    </row>
+    <row r="77" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2"/>
+      <c r="V77" s="2"/>
+      <c r="W77" s="2"/>
+      <c r="X77" s="2"/>
+      <c r="Y77" s="2"/>
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+      <c r="AC77" s="2"/>
+      <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
+      <c r="AF77" s="2"/>
+      <c r="AG77" s="2"/>
+    </row>
+    <row r="78" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2"/>
+      <c r="V78" s="2"/>
+      <c r="W78" s="2"/>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AC78" s="2"/>
+      <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
+      <c r="AF78" s="2"/>
+      <c r="AG78" s="2"/>
+    </row>
+    <row r="79" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2"/>
+      <c r="R79" s="2"/>
+      <c r="S79" s="2"/>
+      <c r="T79" s="2"/>
+      <c r="U79" s="2"/>
+      <c r="V79" s="2"/>
+      <c r="W79" s="2"/>
+      <c r="X79" s="2"/>
+      <c r="Y79" s="2"/>
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+      <c r="AC79" s="2"/>
+      <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
+      <c r="AF79" s="2"/>
+      <c r="AG79" s="2"/>
+    </row>
+    <row r="80" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2"/>
+      <c r="V80" s="2"/>
+      <c r="W80" s="2"/>
+      <c r="X80" s="2"/>
+      <c r="Y80" s="2"/>
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+      <c r="AC80" s="2"/>
+      <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
+      <c r="AF80" s="2"/>
+      <c r="AG80" s="2"/>
+    </row>
+    <row r="81" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+      <c r="R81" s="2"/>
+      <c r="S81" s="2"/>
+      <c r="T81" s="2"/>
+      <c r="U81" s="2"/>
+      <c r="V81" s="2"/>
+      <c r="W81" s="2"/>
+      <c r="X81" s="2"/>
+      <c r="Y81" s="2"/>
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+      <c r="AC81" s="2"/>
+      <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
+      <c r="AF81" s="2"/>
+      <c r="AG81" s="2"/>
+    </row>
+    <row r="82" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="2"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2"/>
+      <c r="V82" s="2"/>
+      <c r="W82" s="2"/>
+      <c r="X82" s="2"/>
+      <c r="Y82" s="2"/>
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+      <c r="AC82" s="2"/>
+      <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
+      <c r="AF82" s="2"/>
+      <c r="AG82" s="2"/>
+    </row>
+    <row r="83" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="2"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+      <c r="R83" s="2"/>
+      <c r="S83" s="2"/>
+      <c r="T83" s="2"/>
+      <c r="U83" s="2"/>
+      <c r="V83" s="2"/>
+      <c r="W83" s="2"/>
+      <c r="X83" s="2"/>
+      <c r="Y83" s="2"/>
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+      <c r="AC83" s="2"/>
+      <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
+      <c r="AF83" s="2"/>
+      <c r="AG83" s="2"/>
+    </row>
+    <row r="84" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+      <c r="K84" s="2"/>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="2"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+      <c r="R84" s="2"/>
+      <c r="S84" s="2"/>
+      <c r="T84" s="2"/>
+      <c r="U84" s="2"/>
+      <c r="V84" s="2"/>
+      <c r="W84" s="2"/>
+      <c r="X84" s="2"/>
+      <c r="Y84" s="2"/>
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+      <c r="AC84" s="2"/>
+      <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
+      <c r="AF84" s="2"/>
+      <c r="AG84" s="2"/>
+    </row>
+    <row r="85" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="2"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2"/>
+      <c r="V85" s="2"/>
+      <c r="W85" s="2"/>
+      <c r="X85" s="2"/>
+      <c r="Y85" s="2"/>
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+      <c r="AC85" s="2"/>
+      <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
+      <c r="AF85" s="2"/>
+      <c r="AG85" s="2"/>
+    </row>
+    <row r="86" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="2"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+      <c r="R86" s="2"/>
+      <c r="S86" s="2"/>
+      <c r="T86" s="2"/>
+      <c r="U86" s="2"/>
+      <c r="V86" s="2"/>
+      <c r="W86" s="2"/>
+      <c r="X86" s="2"/>
+      <c r="Y86" s="2"/>
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+      <c r="AC86" s="2"/>
+      <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
+      <c r="AF86" s="2"/>
+      <c r="AG86" s="2"/>
+    </row>
+    <row r="87" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="2"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+      <c r="R87" s="2"/>
+      <c r="S87" s="2"/>
+      <c r="T87" s="2"/>
+      <c r="U87" s="2"/>
+      <c r="V87" s="2"/>
+      <c r="W87" s="2"/>
+      <c r="X87" s="2"/>
+      <c r="Y87" s="2"/>
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+      <c r="AC87" s="2"/>
+      <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
+      <c r="AF87" s="2"/>
+      <c r="AG87" s="2"/>
+    </row>
+    <row r="88" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="2"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+      <c r="R88" s="2"/>
+      <c r="S88" s="2"/>
+      <c r="T88" s="2"/>
+      <c r="U88" s="2"/>
+      <c r="V88" s="2"/>
+      <c r="W88" s="2"/>
+      <c r="X88" s="2"/>
+      <c r="Y88" s="2"/>
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+      <c r="AC88" s="2"/>
+      <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
+      <c r="AF88" s="2"/>
+      <c r="AG88" s="2"/>
+    </row>
+    <row r="89" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="2"/>
+      <c r="S89" s="2"/>
+      <c r="T89" s="2"/>
+      <c r="U89" s="2"/>
+      <c r="V89" s="2"/>
+      <c r="W89" s="2"/>
+      <c r="X89" s="2"/>
+      <c r="Y89" s="2"/>
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+      <c r="AC89" s="2"/>
+      <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
+      <c r="AF89" s="2"/>
+      <c r="AG89" s="2"/>
+    </row>
+    <row r="90" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+      <c r="J90" s="2"/>
+      <c r="K90" s="2"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="2"/>
+      <c r="S90" s="2"/>
+      <c r="T90" s="2"/>
+      <c r="U90" s="2"/>
+      <c r="V90" s="2"/>
+      <c r="W90" s="2"/>
+      <c r="X90" s="2"/>
+      <c r="Y90" s="2"/>
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+      <c r="AC90" s="2"/>
+      <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
+      <c r="AF90" s="2"/>
+      <c r="AG90" s="2"/>
+    </row>
+    <row r="91" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+      <c r="R91" s="2"/>
+      <c r="S91" s="2"/>
+      <c r="T91" s="2"/>
+      <c r="U91" s="2"/>
+      <c r="V91" s="2"/>
+      <c r="W91" s="2"/>
+      <c r="X91" s="2"/>
+      <c r="Y91" s="2"/>
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+      <c r="AC91" s="2"/>
+      <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
+      <c r="AF91" s="2"/>
+      <c r="AG91" s="2"/>
+    </row>
+    <row r="92" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2"/>
+      <c r="K92" s="2"/>
+      <c r="L92" s="2"/>
+      <c r="M92" s="2"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2"/>
+      <c r="V92" s="2"/>
+      <c r="W92" s="2"/>
+      <c r="X92" s="2"/>
+      <c r="Y92" s="2"/>
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+      <c r="AC92" s="2"/>
+      <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
+      <c r="AF92" s="2"/>
+      <c r="AG92" s="2"/>
+    </row>
+    <row r="93" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A93" s="2"/>
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="2"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2"/>
+      <c r="R93" s="2"/>
+      <c r="S93" s="2"/>
+      <c r="T93" s="2"/>
+      <c r="U93" s="2"/>
+      <c r="V93" s="2"/>
+      <c r="W93" s="2"/>
+      <c r="X93" s="2"/>
+      <c r="Y93" s="2"/>
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+      <c r="AC93" s="2"/>
+      <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
+      <c r="AF93" s="2"/>
+      <c r="AG93" s="2"/>
+    </row>
+    <row r="94" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A94" s="2"/>
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2"/>
+      <c r="R94" s="2"/>
+      <c r="S94" s="2"/>
+      <c r="T94" s="2"/>
+      <c r="U94" s="2"/>
+      <c r="V94" s="2"/>
+      <c r="W94" s="2"/>
+      <c r="X94" s="2"/>
+      <c r="Y94" s="2"/>
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+      <c r="AC94" s="2"/>
+      <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
+      <c r="AF94" s="2"/>
+      <c r="AG94" s="2"/>
+    </row>
+    <row r="95" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A95" s="2"/>
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+      <c r="K95" s="2"/>
+      <c r="L95" s="2"/>
+      <c r="M95" s="2"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2"/>
+      <c r="R95" s="2"/>
+      <c r="S95" s="2"/>
+      <c r="T95" s="2"/>
+      <c r="U95" s="2"/>
+      <c r="V95" s="2"/>
+      <c r="W95" s="2"/>
+      <c r="X95" s="2"/>
+      <c r="Y95" s="2"/>
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+      <c r="AC95" s="2"/>
+      <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
+      <c r="AF95" s="2"/>
+      <c r="AG95" s="2"/>
+    </row>
+    <row r="96" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A96" s="2"/>
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2"/>
+      <c r="R96" s="2"/>
+      <c r="S96" s="2"/>
+      <c r="T96" s="2"/>
+      <c r="U96" s="2"/>
+      <c r="V96" s="2"/>
+      <c r="W96" s="2"/>
+      <c r="X96" s="2"/>
+      <c r="Y96" s="2"/>
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+      <c r="AC96" s="2"/>
+      <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
+      <c r="AF96" s="2"/>
+      <c r="AG96" s="2"/>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.4">
+      <c r="A97" s="2"/>
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
+      <c r="U97" s="2"/>
+      <c r="V97" s="2"/>
+      <c r="W97" s="2"/>
+      <c r="X97" s="2"/>
+      <c r="Y97" s="2"/>
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+      <c r="AC97" s="2"/>
+      <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
+      <c r="AF97" s="2"/>
+      <c r="AG97" s="2"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/stage3-day2/Section4_CCN.xlsx
+++ b/stage3-day2/Section4_CCN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takas\rabbit\rabbit-report\stage3-day2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D83026-5ED2-4B56-9C8B-639167A2CC7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77E4F6DD-AE45-4C64-A51C-586AE48819D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17925" yWindow="2925" windowWidth="19890" windowHeight="16290" xr2:uid="{4B919DB0-6813-49EF-A1D3-CE236171147F}"/>
+    <workbookView xWindow="14085" yWindow="1635" windowWidth="19890" windowHeight="16290" xr2:uid="{4B919DB0-6813-49EF-A1D3-CE236171147F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>入力値</t>
     <rPh sb="0" eb="3">
@@ -195,6 +195,32 @@
     <t>ストライド：２の場合</t>
     <rPh sb="8" eb="10">
       <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>対象領域のMax値または平均値を取得</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リョウイキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>チ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヘイキンチ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出力値</t>
+    <rPh sb="0" eb="3">
+      <t>シュツリョクチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -741,7 +767,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -805,42 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -895,6 +885,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -913,11 +909,68 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4715,6 +4768,186 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矢印: 右 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BA15BE-68E8-492F-A33F-F685E1CF4B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2619375" y="29718000"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="矢印: 右 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{105E0177-E241-4E6D-A739-D3504BD08830}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4191000" y="29718000"/>
+          <a:ext cx="371475" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>123</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257328</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>152512</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18BF3BCD-39AE-46E5-92DE-2ABF39676D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3038475" y="29460825"/>
+          <a:ext cx="1095528" cy="800212"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5284,10 +5517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1482BAE-87B8-4145-A1A0-BD1BFBFF9185}">
-  <dimension ref="A1:AI135"/>
+  <dimension ref="A1:AI148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="V122" sqref="V122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.625" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -5331,44 +5564,44 @@
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="24"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="49"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="21" t="s">
+      <c r="J2" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="24"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="49"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
-      <c r="Q2" s="23" t="s">
+      <c r="Q2" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="23"/>
+      <c r="R2" s="55"/>
       <c r="S2" s="2"/>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="28"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="27" t="s">
+      <c r="U2" s="57"/>
+      <c r="V2" s="58"/>
+      <c r="W2" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="29"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="57"/>
+      <c r="Y2" s="58"/>
+      <c r="Z2" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="AA2" s="23"/>
+      <c r="AA2" s="55"/>
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
@@ -5388,13 +5621,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-      <c r="J3" s="21" t="s">
+      <c r="J3" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="24"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="49"/>
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
@@ -5426,7 +5659,7 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="30" t="s">
+      <c r="I4" s="52" t="s">
         <v>1</v>
       </c>
       <c r="J4" s="1"/>
@@ -5465,7 +5698,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="31"/>
+      <c r="I5" s="53"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -5502,7 +5735,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="31"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -5541,7 +5774,7 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="31"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -5578,7 +5811,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="31"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -5615,7 +5848,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="32"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -7158,25 +7391,25 @@
     <row r="50" spans="1:35" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
-      <c r="C50" s="21" t="s">
+      <c r="C50" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
+      <c r="D50" s="48"/>
+      <c r="E50" s="48"/>
       <c r="F50" s="20"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="21" t="s">
+      <c r="I50" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="J50" s="22"/>
-      <c r="K50" s="22"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="23" t="s">
+      <c r="J50" s="48"/>
+      <c r="K50" s="48"/>
+      <c r="L50" s="48"/>
+      <c r="M50" s="49"/>
+      <c r="N50" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O50" s="23"/>
+      <c r="O50" s="55"/>
       <c r="P50" s="2"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
@@ -7207,13 +7440,13 @@
       <c r="F51" s="1"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="21" t="s">
+      <c r="I51" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="J51" s="22"/>
-      <c r="K51" s="22"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="24"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="48"/>
+      <c r="L51" s="48"/>
+      <c r="M51" s="49"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -7282,7 +7515,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="25" t="s">
+      <c r="H53" s="50" t="s">
         <v>1</v>
       </c>
       <c r="I53" s="2"/>
@@ -7323,7 +7556,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
-      <c r="H54" s="26"/>
+      <c r="H54" s="51"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
@@ -7582,34 +7815,34 @@
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="21" t="s">
+      <c r="D61" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="E61" s="22"/>
-      <c r="F61" s="22"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
       <c r="G61" s="20"/>
-      <c r="H61" s="21" t="s">
+      <c r="H61" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="I61" s="22"/>
-      <c r="J61" s="22"/>
-      <c r="K61" s="22"/>
-      <c r="L61" s="24"/>
+      <c r="I61" s="48"/>
+      <c r="J61" s="48"/>
+      <c r="K61" s="48"/>
+      <c r="L61" s="49"/>
       <c r="M61" s="2"/>
-      <c r="N61" s="23" t="s">
+      <c r="N61" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="O61" s="23"/>
-      <c r="P61" s="27" t="s">
+      <c r="O61" s="55"/>
+      <c r="P61" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="Q61" s="28"/>
-      <c r="R61" s="29"/>
+      <c r="Q61" s="57"/>
+      <c r="R61" s="58"/>
       <c r="S61" s="2"/>
-      <c r="T61" s="23" t="s">
+      <c r="T61" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="U61" s="23"/>
+      <c r="U61" s="55"/>
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
@@ -7633,13 +7866,13 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="21" t="s">
+      <c r="H62" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="I62" s="22"/>
-      <c r="J62" s="22"/>
-      <c r="K62" s="22"/>
-      <c r="L62" s="24"/>
+      <c r="I62" s="48"/>
+      <c r="J62" s="48"/>
+      <c r="K62" s="48"/>
+      <c r="L62" s="49"/>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7721,7 +7954,7 @@
       <c r="O64" s="3">
         <v>190</v>
       </c>
-      <c r="P64" s="25" t="s">
+      <c r="P64" s="50" t="s">
         <v>16</v>
       </c>
       <c r="Q64" s="3">
@@ -7760,7 +7993,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="25" t="s">
+      <c r="H65" s="50" t="s">
         <v>1</v>
       </c>
       <c r="I65" s="2"/>
@@ -7774,7 +8007,7 @@
       <c r="O65" s="3">
         <v>137</v>
       </c>
-      <c r="P65" s="26"/>
+      <c r="P65" s="51"/>
       <c r="Q65" s="2"/>
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
@@ -7809,7 +8042,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="26"/>
+      <c r="H66" s="51"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
@@ -8189,7 +8422,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
-      <c r="J76" s="25" t="s">
+      <c r="J76" s="50" t="s">
         <v>1</v>
       </c>
       <c r="K76" s="2"/>
@@ -8236,7 +8469,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
-      <c r="J77" s="26"/>
+      <c r="J77" s="51"/>
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
@@ -8727,21 +8960,21 @@
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="51" t="s">
+      <c r="D90" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="E90" s="52"/>
-      <c r="F90" s="52"/>
-      <c r="G90" s="52"/>
-      <c r="H90" s="52"/>
-      <c r="I90" s="52"/>
-      <c r="J90" s="52"/>
-      <c r="K90" s="52"/>
-      <c r="L90" s="52"/>
-      <c r="M90" s="52"/>
-      <c r="N90" s="52"/>
-      <c r="O90" s="52"/>
-      <c r="P90" s="53"/>
+      <c r="E90" s="42"/>
+      <c r="F90" s="42"/>
+      <c r="G90" s="42"/>
+      <c r="H90" s="42"/>
+      <c r="I90" s="42"/>
+      <c r="J90" s="42"/>
+      <c r="K90" s="42"/>
+      <c r="L90" s="42"/>
+      <c r="M90" s="42"/>
+      <c r="N90" s="42"/>
+      <c r="O90" s="42"/>
+      <c r="P90" s="43"/>
       <c r="Q90" s="2"/>
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
@@ -8766,19 +8999,19 @@
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="54"/>
-      <c r="E91" s="55"/>
-      <c r="F91" s="55"/>
-      <c r="G91" s="55"/>
-      <c r="H91" s="55"/>
-      <c r="I91" s="55"/>
-      <c r="J91" s="55"/>
-      <c r="K91" s="55"/>
-      <c r="L91" s="55"/>
-      <c r="M91" s="55"/>
-      <c r="N91" s="55"/>
-      <c r="O91" s="55"/>
-      <c r="P91" s="56"/>
+      <c r="D91" s="44"/>
+      <c r="E91" s="45"/>
+      <c r="F91" s="45"/>
+      <c r="G91" s="45"/>
+      <c r="H91" s="45"/>
+      <c r="I91" s="45"/>
+      <c r="J91" s="45"/>
+      <c r="K91" s="45"/>
+      <c r="L91" s="45"/>
+      <c r="M91" s="45"/>
+      <c r="N91" s="45"/>
+      <c r="O91" s="45"/>
+      <c r="P91" s="46"/>
       <c r="Q91" s="2"/>
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
@@ -8840,16 +9073,16 @@
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="4"/>
-      <c r="D93" s="40">
+      <c r="D93" s="28">
         <v>3</v>
       </c>
-      <c r="E93" s="41">
+      <c r="E93" s="29">
         <v>4</v>
       </c>
-      <c r="F93" s="42">
+      <c r="F93" s="30">
         <v>4</v>
       </c>
-      <c r="G93" s="39">
+      <c r="G93" s="27">
         <v>2</v>
       </c>
       <c r="H93" s="3">
@@ -8866,19 +9099,19 @@
       </c>
       <c r="L93" s="5"/>
       <c r="M93" s="4"/>
-      <c r="N93" s="35">
+      <c r="N93" s="23">
         <v>3</v>
       </c>
-      <c r="O93" s="40">
+      <c r="O93" s="28">
         <v>4</v>
       </c>
-      <c r="P93" s="41">
+      <c r="P93" s="29">
         <v>4</v>
       </c>
-      <c r="Q93" s="42">
+      <c r="Q93" s="30">
         <v>2</v>
       </c>
-      <c r="R93" s="39">
+      <c r="R93" s="27">
         <v>3</v>
       </c>
       <c r="S93" s="3">
@@ -8892,22 +9125,22 @@
       </c>
       <c r="V93" s="2"/>
       <c r="W93" s="2"/>
-      <c r="X93" s="35">
+      <c r="X93" s="23">
         <v>3</v>
       </c>
-      <c r="Y93" s="35">
+      <c r="Y93" s="23">
         <v>4</v>
       </c>
-      <c r="Z93" s="40">
+      <c r="Z93" s="28">
         <v>4</v>
       </c>
-      <c r="AA93" s="41">
+      <c r="AA93" s="29">
         <v>2</v>
       </c>
-      <c r="AB93" s="48">
+      <c r="AB93" s="36">
         <v>3</v>
       </c>
-      <c r="AC93" s="39">
+      <c r="AC93" s="27">
         <v>4</v>
       </c>
       <c r="AD93" s="3">
@@ -8925,16 +9158,16 @@
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="4"/>
-      <c r="D94" s="43">
+      <c r="D94" s="31">
         <v>0</v>
       </c>
       <c r="E94" s="3">
         <v>8</v>
       </c>
-      <c r="F94" s="44">
+      <c r="F94" s="32">
         <v>9</v>
       </c>
-      <c r="G94" s="39">
+      <c r="G94" s="27">
         <v>2</v>
       </c>
       <c r="H94" s="3">
@@ -8951,19 +9184,19 @@
       </c>
       <c r="L94" s="5"/>
       <c r="M94" s="4"/>
-      <c r="N94" s="35">
+      <c r="N94" s="23">
         <v>0</v>
       </c>
-      <c r="O94" s="43">
+      <c r="O94" s="31">
         <v>8</v>
       </c>
       <c r="P94" s="3">
         <v>9</v>
       </c>
-      <c r="Q94" s="44">
+      <c r="Q94" s="32">
         <v>2</v>
       </c>
-      <c r="R94" s="39">
+      <c r="R94" s="27">
         <v>0</v>
       </c>
       <c r="S94" s="3">
@@ -8977,22 +9210,22 @@
       </c>
       <c r="V94" s="2"/>
       <c r="W94" s="2"/>
-      <c r="X94" s="35">
+      <c r="X94" s="23">
         <v>0</v>
       </c>
-      <c r="Y94" s="35">
+      <c r="Y94" s="23">
         <v>8</v>
       </c>
-      <c r="Z94" s="43">
+      <c r="Z94" s="31">
         <v>9</v>
       </c>
       <c r="AA94" s="3">
         <v>2</v>
       </c>
-      <c r="AB94" s="49">
+      <c r="AB94" s="37">
         <v>0</v>
       </c>
-      <c r="AC94" s="39">
+      <c r="AC94" s="27">
         <v>8</v>
       </c>
       <c r="AD94" s="3">
@@ -9010,16 +9243,16 @@
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="4"/>
-      <c r="D95" s="45">
+      <c r="D95" s="33">
         <v>0</v>
       </c>
-      <c r="E95" s="46">
+      <c r="E95" s="34">
         <v>4</v>
       </c>
-      <c r="F95" s="47">
+      <c r="F95" s="35">
         <v>3</v>
       </c>
-      <c r="G95" s="39">
+      <c r="G95" s="27">
         <v>1</v>
       </c>
       <c r="H95" s="3">
@@ -9036,19 +9269,19 @@
       </c>
       <c r="L95" s="5"/>
       <c r="M95" s="4"/>
-      <c r="N95" s="35">
+      <c r="N95" s="23">
         <v>0</v>
       </c>
-      <c r="O95" s="45">
+      <c r="O95" s="33">
         <v>4</v>
       </c>
-      <c r="P95" s="46">
+      <c r="P95" s="34">
         <v>3</v>
       </c>
-      <c r="Q95" s="47">
+      <c r="Q95" s="35">
         <v>1</v>
       </c>
-      <c r="R95" s="39">
+      <c r="R95" s="27">
         <v>0</v>
       </c>
       <c r="S95" s="3">
@@ -9062,22 +9295,22 @@
       </c>
       <c r="V95" s="2"/>
       <c r="W95" s="2"/>
-      <c r="X95" s="35">
+      <c r="X95" s="23">
         <v>0</v>
       </c>
-      <c r="Y95" s="35">
+      <c r="Y95" s="23">
         <v>4</v>
       </c>
-      <c r="Z95" s="45">
+      <c r="Z95" s="33">
         <v>3</v>
       </c>
-      <c r="AA95" s="46">
+      <c r="AA95" s="34">
         <v>1</v>
       </c>
-      <c r="AB95" s="50">
+      <c r="AB95" s="38">
         <v>0</v>
       </c>
-      <c r="AC95" s="39">
+      <c r="AC95" s="27">
         <v>4</v>
       </c>
       <c r="AD95" s="3">
@@ -9095,13 +9328,13 @@
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="33">
+      <c r="D96" s="21">
         <v>3</v>
       </c>
-      <c r="E96" s="33">
+      <c r="E96" s="21">
         <v>3</v>
       </c>
-      <c r="F96" s="33">
+      <c r="F96" s="21">
         <v>5</v>
       </c>
       <c r="G96" s="3">
@@ -9124,13 +9357,13 @@
       <c r="N96" s="3">
         <v>3</v>
       </c>
-      <c r="O96" s="33">
+      <c r="O96" s="21">
         <v>3</v>
       </c>
-      <c r="P96" s="33">
+      <c r="P96" s="21">
         <v>5</v>
       </c>
-      <c r="Q96" s="33">
+      <c r="Q96" s="21">
         <v>7</v>
       </c>
       <c r="R96" s="3">
@@ -9150,16 +9383,16 @@
       <c r="X96" s="3">
         <v>3</v>
       </c>
-      <c r="Y96" s="33">
+      <c r="Y96" s="21">
         <v>3</v>
       </c>
-      <c r="Z96" s="33">
+      <c r="Z96" s="21">
         <v>5</v>
       </c>
-      <c r="AA96" s="33">
+      <c r="AA96" s="21">
         <v>7</v>
       </c>
-      <c r="AB96" s="33">
+      <c r="AB96" s="21">
         <v>3</v>
       </c>
       <c r="AC96" s="3">
@@ -9779,21 +10012,21 @@
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="51" t="s">
+      <c r="D108" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="E108" s="52"/>
-      <c r="F108" s="52"/>
-      <c r="G108" s="52"/>
-      <c r="H108" s="52"/>
-      <c r="I108" s="52"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="52"/>
-      <c r="L108" s="52"/>
-      <c r="M108" s="52"/>
-      <c r="N108" s="52"/>
-      <c r="O108" s="52"/>
-      <c r="P108" s="53"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="42"/>
+      <c r="I108" s="42"/>
+      <c r="J108" s="42"/>
+      <c r="K108" s="42"/>
+      <c r="L108" s="42"/>
+      <c r="M108" s="42"/>
+      <c r="N108" s="42"/>
+      <c r="O108" s="42"/>
+      <c r="P108" s="43"/>
       <c r="Q108" s="2"/>
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
@@ -9818,19 +10051,19 @@
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
-      <c r="D109" s="54"/>
-      <c r="E109" s="55"/>
-      <c r="F109" s="55"/>
-      <c r="G109" s="55"/>
-      <c r="H109" s="55"/>
-      <c r="I109" s="55"/>
-      <c r="J109" s="55"/>
-      <c r="K109" s="55"/>
-      <c r="L109" s="55"/>
-      <c r="M109" s="55"/>
-      <c r="N109" s="55"/>
-      <c r="O109" s="55"/>
-      <c r="P109" s="56"/>
+      <c r="D109" s="44"/>
+      <c r="E109" s="45"/>
+      <c r="F109" s="45"/>
+      <c r="G109" s="45"/>
+      <c r="H109" s="45"/>
+      <c r="I109" s="45"/>
+      <c r="J109" s="45"/>
+      <c r="K109" s="45"/>
+      <c r="L109" s="45"/>
+      <c r="M109" s="45"/>
+      <c r="N109" s="45"/>
+      <c r="O109" s="45"/>
+      <c r="P109" s="46"/>
       <c r="Q109" s="2"/>
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
@@ -9892,16 +10125,16 @@
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="4"/>
-      <c r="D111" s="40">
+      <c r="D111" s="28">
         <v>3</v>
       </c>
-      <c r="E111" s="41">
+      <c r="E111" s="29">
         <v>4</v>
       </c>
-      <c r="F111" s="42">
+      <c r="F111" s="30">
         <v>4</v>
       </c>
-      <c r="G111" s="39">
+      <c r="G111" s="27">
         <v>2</v>
       </c>
       <c r="H111" s="3">
@@ -9918,22 +10151,22 @@
       </c>
       <c r="L111" s="5"/>
       <c r="M111" s="4"/>
-      <c r="N111" s="35">
+      <c r="N111" s="23">
         <v>3</v>
       </c>
-      <c r="O111" s="35">
+      <c r="O111" s="23">
         <v>4</v>
       </c>
-      <c r="P111" s="40">
+      <c r="P111" s="28">
         <v>4</v>
       </c>
-      <c r="Q111" s="41">
+      <c r="Q111" s="29">
         <v>2</v>
       </c>
-      <c r="R111" s="48">
+      <c r="R111" s="36">
         <v>3</v>
       </c>
-      <c r="S111" s="39">
+      <c r="S111" s="27">
         <v>4</v>
       </c>
       <c r="T111" s="3">
@@ -9944,28 +10177,28 @@
       </c>
       <c r="V111" s="2"/>
       <c r="W111" s="2"/>
-      <c r="X111" s="35">
+      <c r="X111" s="23">
         <v>3</v>
       </c>
-      <c r="Y111" s="35">
+      <c r="Y111" s="23">
         <v>4</v>
       </c>
       <c r="Z111" s="3">
         <v>4</v>
       </c>
-      <c r="AA111" s="35">
+      <c r="AA111" s="23">
         <v>2</v>
       </c>
-      <c r="AB111" s="40">
+      <c r="AB111" s="28">
         <v>3</v>
       </c>
-      <c r="AC111" s="57">
+      <c r="AC111" s="39">
         <v>4</v>
       </c>
-      <c r="AD111" s="42">
+      <c r="AD111" s="30">
         <v>4</v>
       </c>
-      <c r="AE111" s="39">
+      <c r="AE111" s="27">
         <v>2</v>
       </c>
       <c r="AF111" s="2"/>
@@ -9977,16 +10210,16 @@
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="4"/>
-      <c r="D112" s="43">
+      <c r="D112" s="31">
         <v>0</v>
       </c>
       <c r="E112" s="3">
         <v>8</v>
       </c>
-      <c r="F112" s="44">
+      <c r="F112" s="32">
         <v>9</v>
       </c>
-      <c r="G112" s="39">
+      <c r="G112" s="27">
         <v>2</v>
       </c>
       <c r="H112" s="3">
@@ -10003,22 +10236,22 @@
       </c>
       <c r="L112" s="5"/>
       <c r="M112" s="4"/>
-      <c r="N112" s="35">
+      <c r="N112" s="23">
         <v>0</v>
       </c>
-      <c r="O112" s="35">
+      <c r="O112" s="23">
         <v>8</v>
       </c>
-      <c r="P112" s="43">
+      <c r="P112" s="31">
         <v>9</v>
       </c>
       <c r="Q112" s="3">
         <v>2</v>
       </c>
-      <c r="R112" s="49">
+      <c r="R112" s="37">
         <v>0</v>
       </c>
-      <c r="S112" s="39">
+      <c r="S112" s="27">
         <v>8</v>
       </c>
       <c r="T112" s="3">
@@ -10029,28 +10262,28 @@
       </c>
       <c r="V112" s="2"/>
       <c r="W112" s="2"/>
-      <c r="X112" s="35">
+      <c r="X112" s="23">
         <v>0</v>
       </c>
-      <c r="Y112" s="35">
+      <c r="Y112" s="23">
         <v>8</v>
       </c>
       <c r="Z112" s="3">
         <v>9</v>
       </c>
-      <c r="AA112" s="35">
+      <c r="AA112" s="23">
         <v>2</v>
       </c>
-      <c r="AB112" s="43">
+      <c r="AB112" s="31">
         <v>0</v>
       </c>
-      <c r="AC112" s="39">
+      <c r="AC112" s="27">
         <v>8</v>
       </c>
-      <c r="AD112" s="44">
+      <c r="AD112" s="32">
         <v>9</v>
       </c>
-      <c r="AE112" s="39">
+      <c r="AE112" s="27">
         <v>2</v>
       </c>
       <c r="AF112" s="2"/>
@@ -10062,16 +10295,16 @@
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="4"/>
-      <c r="D113" s="45">
+      <c r="D113" s="33">
         <v>0</v>
       </c>
-      <c r="E113" s="46">
+      <c r="E113" s="34">
         <v>4</v>
       </c>
-      <c r="F113" s="47">
+      <c r="F113" s="35">
         <v>3</v>
       </c>
-      <c r="G113" s="39">
+      <c r="G113" s="27">
         <v>1</v>
       </c>
       <c r="H113" s="3">
@@ -10088,22 +10321,22 @@
       </c>
       <c r="L113" s="5"/>
       <c r="M113" s="4"/>
-      <c r="N113" s="35">
+      <c r="N113" s="23">
         <v>0</v>
       </c>
-      <c r="O113" s="35">
+      <c r="O113" s="23">
         <v>4</v>
       </c>
-      <c r="P113" s="45">
+      <c r="P113" s="33">
         <v>3</v>
       </c>
-      <c r="Q113" s="46">
+      <c r="Q113" s="34">
         <v>1</v>
       </c>
-      <c r="R113" s="50">
+      <c r="R113" s="38">
         <v>0</v>
       </c>
-      <c r="S113" s="39">
+      <c r="S113" s="27">
         <v>4</v>
       </c>
       <c r="T113" s="3">
@@ -10114,28 +10347,28 @@
       </c>
       <c r="V113" s="2"/>
       <c r="W113" s="2"/>
-      <c r="X113" s="35">
+      <c r="X113" s="23">
         <v>0</v>
       </c>
-      <c r="Y113" s="35">
+      <c r="Y113" s="23">
         <v>4</v>
       </c>
       <c r="Z113" s="3">
         <v>3</v>
       </c>
-      <c r="AA113" s="35">
+      <c r="AA113" s="23">
         <v>1</v>
       </c>
-      <c r="AB113" s="45">
+      <c r="AB113" s="33">
         <v>0</v>
       </c>
-      <c r="AC113" s="58">
+      <c r="AC113" s="40">
         <v>4</v>
       </c>
-      <c r="AD113" s="47">
+      <c r="AD113" s="35">
         <v>3</v>
       </c>
-      <c r="AE113" s="39">
+      <c r="AE113" s="27">
         <v>1</v>
       </c>
       <c r="AF113" s="2"/>
@@ -10147,13 +10380,13 @@
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
-      <c r="D114" s="33">
+      <c r="D114" s="21">
         <v>3</v>
       </c>
-      <c r="E114" s="33">
+      <c r="E114" s="21">
         <v>3</v>
       </c>
-      <c r="F114" s="33">
+      <c r="F114" s="21">
         <v>5</v>
       </c>
       <c r="G114" s="3">
@@ -10176,16 +10409,16 @@
       <c r="N114" s="3">
         <v>3</v>
       </c>
-      <c r="O114" s="33">
+      <c r="O114" s="21">
         <v>3</v>
       </c>
-      <c r="P114" s="33">
+      <c r="P114" s="21">
         <v>5</v>
       </c>
-      <c r="Q114" s="33">
+      <c r="Q114" s="21">
         <v>7</v>
       </c>
-      <c r="R114" s="33">
+      <c r="R114" s="21">
         <v>3</v>
       </c>
       <c r="S114" s="3">
@@ -10202,22 +10435,22 @@
       <c r="X114" s="3">
         <v>3</v>
       </c>
-      <c r="Y114" s="33">
+      <c r="Y114" s="21">
         <v>3</v>
       </c>
-      <c r="Z114" s="33">
+      <c r="Z114" s="21">
         <v>5</v>
       </c>
-      <c r="AA114" s="33">
+      <c r="AA114" s="21">
         <v>7</v>
       </c>
-      <c r="AB114" s="33">
+      <c r="AB114" s="21">
         <v>3</v>
       </c>
-      <c r="AC114" s="33">
+      <c r="AC114" s="21">
         <v>3</v>
       </c>
-      <c r="AD114" s="33">
+      <c r="AD114" s="21">
         <v>5</v>
       </c>
       <c r="AE114" s="3">
@@ -10688,10 +10921,12 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2"/>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
+      <c r="I122" s="62" t="s">
+        <v>21</v>
+      </c>
+      <c r="J122" s="63"/>
+      <c r="K122" s="63"/>
+      <c r="L122" s="64"/>
       <c r="M122" s="2"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -10716,22 +10951,26 @@
       <c r="AH122" s="2"/>
       <c r="AI122" s="2"/>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
-      <c r="D123" s="2"/>
-      <c r="E123" s="2"/>
-      <c r="F123" s="2"/>
-      <c r="G123" s="2"/>
+      <c r="D123" s="59" t="s">
+        <v>0</v>
+      </c>
+      <c r="E123" s="60"/>
+      <c r="F123" s="60"/>
+      <c r="G123" s="61"/>
       <c r="H123" s="2"/>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
-      <c r="N123" s="2"/>
-      <c r="O123" s="2"/>
+      <c r="I123" s="65"/>
+      <c r="J123" s="66"/>
+      <c r="K123" s="66"/>
+      <c r="L123" s="67"/>
+      <c r="M123" s="6"/>
+      <c r="N123" s="56" t="s">
+        <v>22</v>
+      </c>
+      <c r="O123" s="58"/>
       <c r="P123" s="2"/>
       <c r="Q123" s="2"/>
       <c r="R123" s="2"/>
@@ -10753,21 +10992,29 @@
       <c r="AH123" s="2"/>
       <c r="AI123" s="2"/>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
-      <c r="D124" s="2"/>
-      <c r="E124" s="2"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="2"/>
+      <c r="D124" s="28">
+        <v>3</v>
+      </c>
+      <c r="E124" s="29">
+        <v>4</v>
+      </c>
+      <c r="F124" s="30">
+        <v>4</v>
+      </c>
+      <c r="G124" s="27">
+        <v>2</v>
+      </c>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
+      <c r="J124" s="4"/>
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
       <c r="M124" s="2"/>
-      <c r="N124" s="2"/>
+      <c r="N124" s="5"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
       <c r="Q124" s="2"/>
@@ -10794,18 +11041,26 @@
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2"/>
-      <c r="F125" s="2"/>
-      <c r="G125" s="2"/>
+      <c r="D125" s="31">
+        <v>0</v>
+      </c>
+      <c r="E125" s="3">
+        <v>8</v>
+      </c>
+      <c r="F125" s="32">
+        <v>9</v>
+      </c>
+      <c r="G125" s="27">
+        <v>2</v>
+      </c>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
+      <c r="J125" s="4"/>
       <c r="K125" s="2"/>
       <c r="L125" s="2"/>
       <c r="M125" s="2"/>
-      <c r="N125" s="2"/>
-      <c r="O125" s="2"/>
+      <c r="N125" s="14"/>
+      <c r="O125" s="14"/>
       <c r="P125" s="2"/>
       <c r="Q125" s="2"/>
       <c r="R125" s="2"/>
@@ -10827,22 +11082,30 @@
       <c r="AH125" s="2"/>
       <c r="AI125" s="2"/>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:35" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
-      <c r="D126" s="2"/>
-      <c r="E126" s="2"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="2"/>
+      <c r="D126" s="33">
+        <v>0</v>
+      </c>
+      <c r="E126" s="34">
+        <v>4</v>
+      </c>
+      <c r="F126" s="35">
+        <v>3</v>
+      </c>
+      <c r="G126" s="27">
+        <v>1</v>
+      </c>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
+      <c r="J126" s="4"/>
       <c r="K126" s="2"/>
       <c r="L126" s="2"/>
       <c r="M126" s="2"/>
-      <c r="N126" s="2"/>
-      <c r="O126" s="2"/>
+      <c r="N126" s="14"/>
+      <c r="O126" s="14"/>
       <c r="P126" s="2"/>
       <c r="Q126" s="2"/>
       <c r="R126" s="2"/>
@@ -10864,20 +11127,28 @@
       <c r="AH126" s="2"/>
       <c r="AI126" s="2"/>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:35" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
-      <c r="D127" s="2"/>
-      <c r="E127" s="2"/>
-      <c r="F127" s="2"/>
-      <c r="G127" s="2"/>
+      <c r="D127" s="21">
+        <v>3</v>
+      </c>
+      <c r="E127" s="21">
+        <v>3</v>
+      </c>
+      <c r="F127" s="21">
+        <v>5</v>
+      </c>
+      <c r="G127" s="3">
+        <v>7</v>
+      </c>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="K127" s="7"/>
+      <c r="L127" s="7"/>
+      <c r="M127" s="7"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -11197,8 +11468,505 @@
       <c r="AH135" s="2"/>
       <c r="AI135" s="2"/>
     </row>
+    <row r="136" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A136" s="2"/>
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+      <c r="D136" s="2"/>
+      <c r="E136" s="2"/>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+      <c r="H136" s="2"/>
+      <c r="I136" s="2"/>
+      <c r="J136" s="2"/>
+      <c r="K136" s="2"/>
+      <c r="L136" s="2"/>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" s="2"/>
+      <c r="P136" s="2"/>
+      <c r="Q136" s="2"/>
+      <c r="R136" s="2"/>
+      <c r="S136" s="2"/>
+      <c r="T136" s="2"/>
+      <c r="U136" s="2"/>
+      <c r="V136" s="2"/>
+      <c r="W136" s="2"/>
+      <c r="X136" s="2"/>
+      <c r="Y136" s="2"/>
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+      <c r="AC136" s="2"/>
+      <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
+      <c r="AF136" s="2"/>
+      <c r="AG136" s="2"/>
+      <c r="AH136" s="2"/>
+      <c r="AI136" s="2"/>
+    </row>
+    <row r="137" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A137" s="2"/>
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+      <c r="D137" s="2"/>
+      <c r="E137" s="2"/>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+      <c r="H137" s="2"/>
+      <c r="I137" s="2"/>
+      <c r="J137" s="2"/>
+      <c r="K137" s="2"/>
+      <c r="L137" s="2"/>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" s="2"/>
+      <c r="P137" s="2"/>
+      <c r="Q137" s="2"/>
+      <c r="R137" s="2"/>
+      <c r="S137" s="2"/>
+      <c r="T137" s="2"/>
+      <c r="U137" s="2"/>
+      <c r="V137" s="2"/>
+      <c r="W137" s="2"/>
+      <c r="X137" s="2"/>
+      <c r="Y137" s="2"/>
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+      <c r="AC137" s="2"/>
+      <c r="AD137" s="2"/>
+      <c r="AE137" s="2"/>
+      <c r="AF137" s="2"/>
+      <c r="AG137" s="2"/>
+      <c r="AH137" s="2"/>
+      <c r="AI137" s="2"/>
+    </row>
+    <row r="138" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A138" s="2"/>
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
+      <c r="J138" s="2"/>
+      <c r="K138" s="2"/>
+      <c r="L138" s="2"/>
+      <c r="M138" s="2"/>
+      <c r="N138" s="2"/>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
+      <c r="U138" s="2"/>
+      <c r="V138" s="2"/>
+      <c r="W138" s="2"/>
+      <c r="X138" s="2"/>
+      <c r="Y138" s="2"/>
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+      <c r="AC138" s="2"/>
+      <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
+      <c r="AF138" s="2"/>
+      <c r="AG138" s="2"/>
+      <c r="AH138" s="2"/>
+      <c r="AI138" s="2"/>
+    </row>
+    <row r="139" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A139" s="2"/>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+      <c r="E139" s="2"/>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+      <c r="H139" s="2"/>
+      <c r="I139" s="2"/>
+      <c r="J139" s="2"/>
+      <c r="K139" s="2"/>
+      <c r="L139" s="2"/>
+      <c r="M139" s="2"/>
+      <c r="N139" s="2"/>
+      <c r="O139" s="2"/>
+      <c r="P139" s="2"/>
+      <c r="Q139" s="2"/>
+      <c r="R139" s="2"/>
+      <c r="S139" s="2"/>
+      <c r="T139" s="2"/>
+      <c r="U139" s="2"/>
+      <c r="V139" s="2"/>
+      <c r="W139" s="2"/>
+      <c r="X139" s="2"/>
+      <c r="Y139" s="2"/>
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+      <c r="AC139" s="2"/>
+      <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
+      <c r="AF139" s="2"/>
+      <c r="AG139" s="2"/>
+      <c r="AH139" s="2"/>
+      <c r="AI139" s="2"/>
+    </row>
+    <row r="140" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A140" s="2"/>
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+      <c r="D140" s="2"/>
+      <c r="E140" s="2"/>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+      <c r="H140" s="2"/>
+      <c r="I140" s="2"/>
+      <c r="J140" s="2"/>
+      <c r="K140" s="2"/>
+      <c r="L140" s="2"/>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" s="2"/>
+      <c r="P140" s="2"/>
+      <c r="Q140" s="2"/>
+      <c r="R140" s="2"/>
+      <c r="S140" s="2"/>
+      <c r="T140" s="2"/>
+      <c r="U140" s="2"/>
+      <c r="V140" s="2"/>
+      <c r="W140" s="2"/>
+      <c r="X140" s="2"/>
+      <c r="Y140" s="2"/>
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="2"/>
+      <c r="AC140" s="2"/>
+      <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
+      <c r="AF140" s="2"/>
+      <c r="AG140" s="2"/>
+      <c r="AH140" s="2"/>
+      <c r="AI140" s="2"/>
+    </row>
+    <row r="141" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A141" s="2"/>
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+      <c r="D141" s="2"/>
+      <c r="E141" s="2"/>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+      <c r="H141" s="2"/>
+      <c r="I141" s="2"/>
+      <c r="J141" s="2"/>
+      <c r="K141" s="2"/>
+      <c r="L141" s="2"/>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" s="2"/>
+      <c r="P141" s="2"/>
+      <c r="Q141" s="2"/>
+      <c r="R141" s="2"/>
+      <c r="S141" s="2"/>
+      <c r="T141" s="2"/>
+      <c r="U141" s="2"/>
+      <c r="V141" s="2"/>
+      <c r="W141" s="2"/>
+      <c r="X141" s="2"/>
+      <c r="Y141" s="2"/>
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
+      <c r="AB141" s="2"/>
+      <c r="AC141" s="2"/>
+      <c r="AD141" s="2"/>
+      <c r="AE141" s="2"/>
+      <c r="AF141" s="2"/>
+      <c r="AG141" s="2"/>
+      <c r="AH141" s="2"/>
+      <c r="AI141" s="2"/>
+    </row>
+    <row r="142" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A142" s="2"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2"/>
+      <c r="K142" s="2"/>
+      <c r="L142" s="2"/>
+      <c r="M142" s="2"/>
+      <c r="N142" s="2"/>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2"/>
+      <c r="V142" s="2"/>
+      <c r="W142" s="2"/>
+      <c r="X142" s="2"/>
+      <c r="Y142" s="2"/>
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+      <c r="AC142" s="2"/>
+      <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
+      <c r="AF142" s="2"/>
+      <c r="AG142" s="2"/>
+      <c r="AH142" s="2"/>
+      <c r="AI142" s="2"/>
+    </row>
+    <row r="143" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A143" s="2"/>
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2"/>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+      <c r="I143" s="2"/>
+      <c r="J143" s="2"/>
+      <c r="K143" s="2"/>
+      <c r="L143" s="2"/>
+      <c r="M143" s="2"/>
+      <c r="N143" s="2"/>
+      <c r="O143" s="2"/>
+      <c r="P143" s="2"/>
+      <c r="Q143" s="2"/>
+      <c r="R143" s="2"/>
+      <c r="S143" s="2"/>
+      <c r="T143" s="2"/>
+      <c r="U143" s="2"/>
+      <c r="V143" s="2"/>
+      <c r="W143" s="2"/>
+      <c r="X143" s="2"/>
+      <c r="Y143" s="2"/>
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="2"/>
+      <c r="AC143" s="2"/>
+      <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
+      <c r="AF143" s="2"/>
+      <c r="AG143" s="2"/>
+      <c r="AH143" s="2"/>
+      <c r="AI143" s="2"/>
+    </row>
+    <row r="144" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A144" s="2"/>
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2"/>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+      <c r="H144" s="2"/>
+      <c r="I144" s="2"/>
+      <c r="J144" s="2"/>
+      <c r="K144" s="2"/>
+      <c r="L144" s="2"/>
+      <c r="M144" s="2"/>
+      <c r="N144" s="2"/>
+      <c r="O144" s="2"/>
+      <c r="P144" s="2"/>
+      <c r="Q144" s="2"/>
+      <c r="R144" s="2"/>
+      <c r="S144" s="2"/>
+      <c r="T144" s="2"/>
+      <c r="U144" s="2"/>
+      <c r="V144" s="2"/>
+      <c r="W144" s="2"/>
+      <c r="X144" s="2"/>
+      <c r="Y144" s="2"/>
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+      <c r="AC144" s="2"/>
+      <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
+      <c r="AF144" s="2"/>
+      <c r="AG144" s="2"/>
+      <c r="AH144" s="2"/>
+      <c r="AI144" s="2"/>
+    </row>
+    <row r="145" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A145" s="2"/>
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+      <c r="D145" s="2"/>
+      <c r="E145" s="2"/>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2"/>
+      <c r="K145" s="2"/>
+      <c r="L145" s="2"/>
+      <c r="M145" s="2"/>
+      <c r="N145" s="2"/>
+      <c r="O145" s="2"/>
+      <c r="P145" s="2"/>
+      <c r="Q145" s="2"/>
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2"/>
+      <c r="V145" s="2"/>
+      <c r="W145" s="2"/>
+      <c r="X145" s="2"/>
+      <c r="Y145" s="2"/>
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+      <c r="AC145" s="2"/>
+      <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
+      <c r="AF145" s="2"/>
+      <c r="AG145" s="2"/>
+      <c r="AH145" s="2"/>
+      <c r="AI145" s="2"/>
+    </row>
+    <row r="146" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A146" s="2"/>
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+      <c r="D146" s="2"/>
+      <c r="E146" s="2"/>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+      <c r="H146" s="2"/>
+      <c r="I146" s="2"/>
+      <c r="J146" s="2"/>
+      <c r="K146" s="2"/>
+      <c r="L146" s="2"/>
+      <c r="M146" s="2"/>
+      <c r="N146" s="2"/>
+      <c r="O146" s="2"/>
+      <c r="P146" s="2"/>
+      <c r="Q146" s="2"/>
+      <c r="R146" s="2"/>
+      <c r="S146" s="2"/>
+      <c r="T146" s="2"/>
+      <c r="U146" s="2"/>
+      <c r="V146" s="2"/>
+      <c r="W146" s="2"/>
+      <c r="X146" s="2"/>
+      <c r="Y146" s="2"/>
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+      <c r="AC146" s="2"/>
+      <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
+      <c r="AF146" s="2"/>
+      <c r="AG146" s="2"/>
+      <c r="AH146" s="2"/>
+      <c r="AI146" s="2"/>
+    </row>
+    <row r="147" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A147" s="2"/>
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+      <c r="D147" s="2"/>
+      <c r="E147" s="2"/>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+      <c r="H147" s="2"/>
+      <c r="I147" s="2"/>
+      <c r="J147" s="2"/>
+      <c r="K147" s="2"/>
+      <c r="L147" s="2"/>
+      <c r="M147" s="2"/>
+      <c r="N147" s="2"/>
+      <c r="O147" s="2"/>
+      <c r="P147" s="2"/>
+      <c r="Q147" s="2"/>
+      <c r="R147" s="2"/>
+      <c r="S147" s="2"/>
+      <c r="T147" s="2"/>
+      <c r="U147" s="2"/>
+      <c r="V147" s="2"/>
+      <c r="W147" s="2"/>
+      <c r="X147" s="2"/>
+      <c r="Y147" s="2"/>
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
+      <c r="AB147" s="2"/>
+      <c r="AC147" s="2"/>
+      <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
+      <c r="AF147" s="2"/>
+      <c r="AG147" s="2"/>
+      <c r="AH147" s="2"/>
+      <c r="AI147" s="2"/>
+    </row>
+    <row r="148" spans="1:35" x14ac:dyDescent="0.4">
+      <c r="A148" s="2"/>
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2"/>
+      <c r="K148" s="2"/>
+      <c r="L148" s="2"/>
+      <c r="M148" s="2"/>
+      <c r="N148" s="2"/>
+      <c r="O148" s="2"/>
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2"/>
+      <c r="V148" s="2"/>
+      <c r="W148" s="2"/>
+      <c r="X148" s="2"/>
+      <c r="Y148" s="2"/>
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="2"/>
+      <c r="AC148" s="2"/>
+      <c r="AD148" s="2"/>
+      <c r="AE148" s="2"/>
+      <c r="AF148" s="2"/>
+      <c r="AG148" s="2"/>
+      <c r="AH148" s="2"/>
+      <c r="AI148" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="27">
+    <mergeCell ref="D123:G123"/>
+    <mergeCell ref="I122:L123"/>
+    <mergeCell ref="N123:O123"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="H62:L62"/>
+    <mergeCell ref="P61:R61"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="N50:O50"/>
+    <mergeCell ref="I50:M50"/>
+    <mergeCell ref="H61:L61"/>
+    <mergeCell ref="H53:H54"/>
+    <mergeCell ref="I51:M51"/>
     <mergeCell ref="D108:P109"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="J2:N2"/>
@@ -11206,23 +11974,10 @@
     <mergeCell ref="J76:J77"/>
     <mergeCell ref="D90:P91"/>
     <mergeCell ref="I4:I9"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="H62:L62"/>
     <mergeCell ref="P64:P65"/>
-    <mergeCell ref="P61:R61"/>
-    <mergeCell ref="T61:U61"/>
     <mergeCell ref="H65:H66"/>
-    <mergeCell ref="N61:O61"/>
     <mergeCell ref="C50:E50"/>
-    <mergeCell ref="N50:O50"/>
-    <mergeCell ref="I50:M50"/>
     <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:L61"/>
-    <mergeCell ref="H53:H54"/>
-    <mergeCell ref="I51:M51"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12757,12 +13512,12 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="38"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
       <c r="H40" s="5"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -12792,20 +13547,20 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="33">
+      <c r="B41" s="26"/>
+      <c r="C41" s="21">
         <v>3</v>
       </c>
-      <c r="D41" s="33">
+      <c r="D41" s="21">
         <v>4</v>
       </c>
-      <c r="E41" s="33">
+      <c r="E41" s="21">
         <v>4</v>
       </c>
-      <c r="F41" s="34">
+      <c r="F41" s="22">
         <v>2</v>
       </c>
-      <c r="G41" s="38"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="5"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -12835,7 +13590,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="38"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="3">
         <v>0</v>
       </c>
@@ -12845,10 +13600,10 @@
       <c r="E42" s="3">
         <v>9</v>
       </c>
-      <c r="F42" s="35">
+      <c r="F42" s="23">
         <v>2</v>
       </c>
-      <c r="G42" s="38"/>
+      <c r="G42" s="26"/>
       <c r="H42" s="5"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -12878,7 +13633,7 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="38"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="3">
         <v>0</v>
       </c>
@@ -12888,10 +13643,10 @@
       <c r="E43" s="3">
         <v>3</v>
       </c>
-      <c r="F43" s="35">
+      <c r="F43" s="23">
         <v>1</v>
       </c>
-      <c r="G43" s="38"/>
+      <c r="G43" s="26"/>
       <c r="H43" s="5"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -12921,20 +13676,20 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="36">
+      <c r="B44" s="26"/>
+      <c r="C44" s="24">
         <v>3</v>
       </c>
-      <c r="D44" s="36">
+      <c r="D44" s="24">
         <v>3</v>
       </c>
-      <c r="E44" s="36">
+      <c r="E44" s="24">
         <v>5</v>
       </c>
-      <c r="F44" s="37">
+      <c r="F44" s="25">
         <v>7</v>
       </c>
-      <c r="G44" s="38"/>
+      <c r="G44" s="26"/>
       <c r="H44" s="5"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -12964,12 +13719,12 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="38"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
       <c r="H45" s="5"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
